--- a/general/xls_statment_VIBRO_template.xlsx
+++ b/general/xls_statment_VIBRO_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\Work\Шаблоны\complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\DigitRock\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE497A-FAE3-4D8F-B1B2-640175A6CCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEE5721-B794-4035-A31C-0090C7D0ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1410" windowWidth="23490" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -19,16 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$825</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -87,75 +77,6 @@
     <t>Частота нагружения f, Гц</t>
   </si>
   <si>
-    <r>
-      <t>Модуль деформации после динамического нагружения E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>50d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, МПа</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Коэффициент виброползучести K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, д.е.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Модуль деформации E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, МПа</t>
-    </r>
-  </si>
-  <si>
     <t>заказчик</t>
   </si>
   <si>
@@ -185,6 +106,78 @@
   <si>
     <t>000</t>
   </si>
+  <si>
+    <r>
+      <t>Модуль деформации E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, МПа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Модуль деформации после динамического нагружения E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>50d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, МПа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коэффициент виброползучести K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, д.е.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +187,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +321,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -750,7 +750,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -853,6 +853,12 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -889,12 +895,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,9 +906,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -937,12 +937,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2385,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q825"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A777" zoomScale="115" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179:XFD179"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A814" zoomScale="115" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N783" sqref="N783:P783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,183 +2424,183 @@
     </row>
     <row r="2" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="C2" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="C2" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
+      <c r="L2" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="57"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="L4" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="59"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="6.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
@@ -2654,27 +2648,27 @@
       <c r="D13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="36" t="s">
         <v>16</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="4"/>
     </row>
@@ -3395,8 +3389,8 @@
       <c r="A53" s="3"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="48"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="50"/>
       <c r="J53" s="22"/>
       <c r="K53" s="1"/>
       <c r="L53" s="2"/>
@@ -3405,7 +3399,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3413,7 +3407,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I54" s="64"/>
       <c r="J54" s="39">
@@ -3421,7 +3415,7 @@
       </c>
       <c r="K54" s="3"/>
       <c r="Q54" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3433,11 +3427,11 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I55" s="66"/>
       <c r="J55" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="14"/>
@@ -3468,183 +3462,183 @@
     </row>
     <row r="57" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="C57" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
+      <c r="C57" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
       <c r="K57" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L57" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="53"/>
+      <c r="L57" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="58"/>
+      <c r="Q57" s="40"/>
     </row>
     <row r="58" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
       <c r="K58" s="57"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="53"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="40"/>
     </row>
     <row r="59" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
       <c r="K59" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L59" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="59"/>
+      <c r="L59" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="41"/>
     </row>
     <row r="60" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
       <c r="K60" s="57"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="41"/>
     </row>
     <row r="61" spans="1:17" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="59"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="41"/>
     </row>
     <row r="62" spans="1:17" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="21"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="41"/>
     </row>
     <row r="63" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
       <c r="K63" s="24"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="41"/>
     </row>
     <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
       <c r="K64" s="24"/>
-      <c r="L64" s="58"/>
-      <c r="M64" s="58"/>
-      <c r="N64" s="58"/>
-      <c r="O64" s="58"/>
-      <c r="P64" s="58"/>
-      <c r="Q64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="41"/>
     </row>
     <row r="65" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
       <c r="K65" s="25"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="41"/>
     </row>
     <row r="66" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="55"/>
@@ -3706,13 +3700,13 @@
         <v>16</v>
       </c>
       <c r="N68" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O68" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P68" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q68" s="4"/>
     </row>
@@ -4433,8 +4427,8 @@
       <c r="A108" s="3"/>
       <c r="F108" s="22"/>
       <c r="G108" s="22"/>
-      <c r="H108" s="47"/>
-      <c r="I108" s="48"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="50"/>
       <c r="J108" s="22"/>
       <c r="K108" s="1"/>
       <c r="L108" s="2"/>
@@ -4443,7 +4437,7 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4451,7 +4445,7 @@
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
       <c r="H109" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I109" s="64"/>
       <c r="J109" s="39">
@@ -4459,7 +4453,7 @@
       </c>
       <c r="K109" s="3"/>
       <c r="Q109" s="61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4471,11 +4465,11 @@
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
       <c r="H110" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I110" s="66"/>
       <c r="J110" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K110" s="13"/>
       <c r="L110" s="14"/>
@@ -4506,183 +4500,183 @@
     </row>
     <row r="112" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
-      <c r="C112" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
+      <c r="C112" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
       <c r="K112" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L112" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M112" s="52"/>
-      <c r="N112" s="52"/>
-      <c r="O112" s="52"/>
-      <c r="P112" s="52"/>
-      <c r="Q112" s="53"/>
+      <c r="L112" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" s="58"/>
+      <c r="N112" s="58"/>
+      <c r="O112" s="58"/>
+      <c r="P112" s="58"/>
+      <c r="Q112" s="40"/>
     </row>
     <row r="113" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
       <c r="K113" s="57"/>
-      <c r="L113" s="52"/>
-      <c r="M113" s="52"/>
-      <c r="N113" s="52"/>
-      <c r="O113" s="52"/>
-      <c r="P113" s="52"/>
-      <c r="Q113" s="53"/>
+      <c r="L113" s="58"/>
+      <c r="M113" s="58"/>
+      <c r="N113" s="58"/>
+      <c r="O113" s="58"/>
+      <c r="P113" s="58"/>
+      <c r="Q113" s="40"/>
     </row>
     <row r="114" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
       <c r="K114" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L114" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M114" s="58"/>
-      <c r="N114" s="58"/>
-      <c r="O114" s="58"/>
-      <c r="P114" s="58"/>
-      <c r="Q114" s="59"/>
+      <c r="L114" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M114" s="59"/>
+      <c r="N114" s="59"/>
+      <c r="O114" s="59"/>
+      <c r="P114" s="59"/>
+      <c r="Q114" s="41"/>
     </row>
     <row r="115" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
       <c r="K115" s="57"/>
-      <c r="L115" s="58"/>
-      <c r="M115" s="58"/>
-      <c r="N115" s="58"/>
-      <c r="O115" s="58"/>
-      <c r="P115" s="58"/>
-      <c r="Q115" s="59"/>
+      <c r="L115" s="59"/>
+      <c r="M115" s="59"/>
+      <c r="N115" s="59"/>
+      <c r="O115" s="59"/>
+      <c r="P115" s="59"/>
+      <c r="Q115" s="41"/>
     </row>
     <row r="116" spans="1:17" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="46"/>
-      <c r="I116" s="46"/>
-      <c r="J116" s="46"/>
-      <c r="L116" s="58"/>
-      <c r="M116" s="58"/>
-      <c r="N116" s="58"/>
-      <c r="O116" s="58"/>
-      <c r="P116" s="58"/>
-      <c r="Q116" s="59"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="48"/>
+      <c r="J116" s="48"/>
+      <c r="L116" s="59"/>
+      <c r="M116" s="59"/>
+      <c r="N116" s="59"/>
+      <c r="O116" s="59"/>
+      <c r="P116" s="59"/>
+      <c r="Q116" s="41"/>
     </row>
     <row r="117" spans="1:17" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="49"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="51"/>
       <c r="K117" s="21"/>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="58"/>
-      <c r="O117" s="58"/>
-      <c r="P117" s="58"/>
-      <c r="Q117" s="59"/>
+      <c r="L117" s="59"/>
+      <c r="M117" s="59"/>
+      <c r="N117" s="59"/>
+      <c r="O117" s="59"/>
+      <c r="P117" s="59"/>
+      <c r="Q117" s="41"/>
     </row>
     <row r="118" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
-      <c r="I118" s="50"/>
-      <c r="J118" s="50"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
+      <c r="I118" s="52"/>
+      <c r="J118" s="52"/>
       <c r="K118" s="24"/>
-      <c r="L118" s="58"/>
-      <c r="M118" s="58"/>
-      <c r="N118" s="58"/>
-      <c r="O118" s="58"/>
-      <c r="P118" s="58"/>
-      <c r="Q118" s="59"/>
+      <c r="L118" s="59"/>
+      <c r="M118" s="59"/>
+      <c r="N118" s="59"/>
+      <c r="O118" s="59"/>
+      <c r="P118" s="59"/>
+      <c r="Q118" s="41"/>
     </row>
     <row r="119" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
-      <c r="I119" s="50"/>
-      <c r="J119" s="50"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
+      <c r="I119" s="52"/>
+      <c r="J119" s="52"/>
       <c r="K119" s="24"/>
-      <c r="L119" s="58"/>
-      <c r="M119" s="58"/>
-      <c r="N119" s="58"/>
-      <c r="O119" s="58"/>
-      <c r="P119" s="58"/>
-      <c r="Q119" s="59"/>
+      <c r="L119" s="59"/>
+      <c r="M119" s="59"/>
+      <c r="N119" s="59"/>
+      <c r="O119" s="59"/>
+      <c r="P119" s="59"/>
+      <c r="Q119" s="41"/>
     </row>
     <row r="120" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="51"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="53"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="53"/>
       <c r="K120" s="25"/>
-      <c r="L120" s="58"/>
-      <c r="M120" s="58"/>
-      <c r="N120" s="58"/>
-      <c r="O120" s="58"/>
-      <c r="P120" s="58"/>
-      <c r="Q120" s="59"/>
+      <c r="L120" s="59"/>
+      <c r="M120" s="59"/>
+      <c r="N120" s="59"/>
+      <c r="O120" s="59"/>
+      <c r="P120" s="59"/>
+      <c r="Q120" s="41"/>
     </row>
     <row r="121" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C121" s="55"/>
       <c r="D121" s="55"/>
@@ -4744,13 +4738,13 @@
         <v>16</v>
       </c>
       <c r="N123" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O123" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P123" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q123" s="4"/>
     </row>
@@ -5471,8 +5465,8 @@
       <c r="A163" s="3"/>
       <c r="F163" s="22"/>
       <c r="G163" s="22"/>
-      <c r="H163" s="47"/>
-      <c r="I163" s="48"/>
+      <c r="H163" s="49"/>
+      <c r="I163" s="50"/>
       <c r="J163" s="22"/>
       <c r="K163" s="1"/>
       <c r="L163" s="2"/>
@@ -5481,7 +5475,7 @@
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
       <c r="Q163" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5489,7 +5483,7 @@
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
       <c r="H164" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I164" s="64"/>
       <c r="J164" s="39">
@@ -5497,7 +5491,7 @@
       </c>
       <c r="K164" s="3"/>
       <c r="Q164" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5509,11 +5503,11 @@
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
       <c r="H165" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I165" s="66"/>
       <c r="J165" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K165" s="13"/>
       <c r="L165" s="14"/>
@@ -5544,183 +5538,183 @@
     </row>
     <row r="167" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
-      <c r="C167" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D167" s="43"/>
-      <c r="E167" s="43"/>
-      <c r="F167" s="43"/>
-      <c r="G167" s="43"/>
-      <c r="H167" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I167" s="45"/>
-      <c r="J167" s="45"/>
+      <c r="C167" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="45"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="45"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I167" s="47"/>
+      <c r="J167" s="47"/>
       <c r="K167" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L167" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M167" s="52"/>
-      <c r="N167" s="52"/>
-      <c r="O167" s="52"/>
-      <c r="P167" s="52"/>
-      <c r="Q167" s="69"/>
+      <c r="L167" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M167" s="58"/>
+      <c r="N167" s="58"/>
+      <c r="O167" s="58"/>
+      <c r="P167" s="58"/>
+      <c r="Q167" s="40"/>
     </row>
     <row r="168" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
-      <c r="C168" s="43"/>
-      <c r="D168" s="43"/>
-      <c r="E168" s="43"/>
-      <c r="F168" s="43"/>
-      <c r="G168" s="43"/>
-      <c r="H168" s="45"/>
-      <c r="I168" s="45"/>
-      <c r="J168" s="45"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="45"/>
+      <c r="E168" s="45"/>
+      <c r="F168" s="45"/>
+      <c r="G168" s="45"/>
+      <c r="H168" s="47"/>
+      <c r="I168" s="47"/>
+      <c r="J168" s="47"/>
       <c r="K168" s="57"/>
-      <c r="L168" s="52"/>
-      <c r="M168" s="52"/>
-      <c r="N168" s="52"/>
-      <c r="O168" s="52"/>
-      <c r="P168" s="52"/>
-      <c r="Q168" s="69"/>
+      <c r="L168" s="58"/>
+      <c r="M168" s="58"/>
+      <c r="N168" s="58"/>
+      <c r="O168" s="58"/>
+      <c r="P168" s="58"/>
+      <c r="Q168" s="40"/>
     </row>
     <row r="169" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
-      <c r="C169" s="43"/>
-      <c r="D169" s="43"/>
-      <c r="E169" s="43"/>
-      <c r="F169" s="43"/>
-      <c r="G169" s="43"/>
-      <c r="H169" s="45"/>
-      <c r="I169" s="45"/>
-      <c r="J169" s="45"/>
+      <c r="C169" s="45"/>
+      <c r="D169" s="45"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="45"/>
+      <c r="H169" s="47"/>
+      <c r="I169" s="47"/>
+      <c r="J169" s="47"/>
       <c r="K169" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L169" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M169" s="58"/>
-      <c r="N169" s="58"/>
-      <c r="O169" s="58"/>
-      <c r="P169" s="58"/>
-      <c r="Q169" s="70"/>
+      <c r="L169" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M169" s="59"/>
+      <c r="N169" s="59"/>
+      <c r="O169" s="59"/>
+      <c r="P169" s="59"/>
+      <c r="Q169" s="41"/>
     </row>
     <row r="170" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
-      <c r="C170" s="43"/>
-      <c r="D170" s="43"/>
-      <c r="E170" s="43"/>
-      <c r="F170" s="43"/>
-      <c r="G170" s="43"/>
-      <c r="H170" s="45"/>
-      <c r="I170" s="45"/>
-      <c r="J170" s="45"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="45"/>
+      <c r="F170" s="45"/>
+      <c r="G170" s="45"/>
+      <c r="H170" s="47"/>
+      <c r="I170" s="47"/>
+      <c r="J170" s="47"/>
       <c r="K170" s="57"/>
-      <c r="L170" s="58"/>
-      <c r="M170" s="58"/>
-      <c r="N170" s="58"/>
-      <c r="O170" s="58"/>
-      <c r="P170" s="58"/>
-      <c r="Q170" s="70"/>
+      <c r="L170" s="59"/>
+      <c r="M170" s="59"/>
+      <c r="N170" s="59"/>
+      <c r="O170" s="59"/>
+      <c r="P170" s="59"/>
+      <c r="Q170" s="41"/>
     </row>
     <row r="171" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
-      <c r="C171" s="44"/>
-      <c r="D171" s="44"/>
-      <c r="E171" s="44"/>
-      <c r="F171" s="44"/>
-      <c r="G171" s="44"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="46"/>
-      <c r="J171" s="46"/>
-      <c r="L171" s="58"/>
-      <c r="M171" s="58"/>
-      <c r="N171" s="58"/>
-      <c r="O171" s="58"/>
-      <c r="P171" s="58"/>
-      <c r="Q171" s="70"/>
+      <c r="C171" s="46"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="46"/>
+      <c r="F171" s="46"/>
+      <c r="G171" s="46"/>
+      <c r="H171" s="48"/>
+      <c r="I171" s="48"/>
+      <c r="J171" s="48"/>
+      <c r="L171" s="59"/>
+      <c r="M171" s="59"/>
+      <c r="N171" s="59"/>
+      <c r="O171" s="59"/>
+      <c r="P171" s="59"/>
+      <c r="Q171" s="41"/>
     </row>
     <row r="172" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
-      <c r="C172" s="49" t="s">
+      <c r="C172" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
-      <c r="F172" s="49"/>
-      <c r="G172" s="49"/>
-      <c r="H172" s="49"/>
-      <c r="I172" s="49"/>
-      <c r="J172" s="49"/>
+      <c r="D172" s="51"/>
+      <c r="E172" s="51"/>
+      <c r="F172" s="51"/>
+      <c r="G172" s="51"/>
+      <c r="H172" s="51"/>
+      <c r="I172" s="51"/>
+      <c r="J172" s="51"/>
       <c r="K172" s="21"/>
-      <c r="L172" s="58"/>
-      <c r="M172" s="58"/>
-      <c r="N172" s="58"/>
-      <c r="O172" s="58"/>
-      <c r="P172" s="58"/>
-      <c r="Q172" s="70"/>
+      <c r="L172" s="59"/>
+      <c r="M172" s="59"/>
+      <c r="N172" s="59"/>
+      <c r="O172" s="59"/>
+      <c r="P172" s="59"/>
+      <c r="Q172" s="41"/>
     </row>
     <row r="173" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
-      <c r="C173" s="50"/>
-      <c r="D173" s="50"/>
-      <c r="E173" s="50"/>
-      <c r="F173" s="50"/>
-      <c r="G173" s="50"/>
-      <c r="H173" s="50"/>
-      <c r="I173" s="50"/>
-      <c r="J173" s="50"/>
+      <c r="C173" s="52"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="52"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="52"/>
+      <c r="H173" s="52"/>
+      <c r="I173" s="52"/>
+      <c r="J173" s="52"/>
       <c r="K173" s="24"/>
-      <c r="L173" s="58"/>
-      <c r="M173" s="58"/>
-      <c r="N173" s="58"/>
-      <c r="O173" s="58"/>
-      <c r="P173" s="58"/>
-      <c r="Q173" s="70"/>
+      <c r="L173" s="59"/>
+      <c r="M173" s="59"/>
+      <c r="N173" s="59"/>
+      <c r="O173" s="59"/>
+      <c r="P173" s="59"/>
+      <c r="Q173" s="41"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
-      <c r="C174" s="50"/>
-      <c r="D174" s="50"/>
-      <c r="E174" s="50"/>
-      <c r="F174" s="50"/>
-      <c r="G174" s="50"/>
-      <c r="H174" s="50"/>
-      <c r="I174" s="50"/>
-      <c r="J174" s="50"/>
+      <c r="C174" s="52"/>
+      <c r="D174" s="52"/>
+      <c r="E174" s="52"/>
+      <c r="F174" s="52"/>
+      <c r="G174" s="52"/>
+      <c r="H174" s="52"/>
+      <c r="I174" s="52"/>
+      <c r="J174" s="52"/>
       <c r="K174" s="24"/>
-      <c r="L174" s="58"/>
-      <c r="M174" s="58"/>
-      <c r="N174" s="58"/>
-      <c r="O174" s="58"/>
-      <c r="P174" s="58"/>
-      <c r="Q174" s="70"/>
+      <c r="L174" s="59"/>
+      <c r="M174" s="59"/>
+      <c r="N174" s="59"/>
+      <c r="O174" s="59"/>
+      <c r="P174" s="59"/>
+      <c r="Q174" s="41"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
-      <c r="C175" s="51"/>
-      <c r="D175" s="51"/>
-      <c r="E175" s="51"/>
-      <c r="F175" s="51"/>
-      <c r="G175" s="51"/>
-      <c r="H175" s="51"/>
-      <c r="I175" s="51"/>
-      <c r="J175" s="51"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="53"/>
+      <c r="E175" s="53"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="53"/>
+      <c r="H175" s="53"/>
+      <c r="I175" s="53"/>
+      <c r="J175" s="53"/>
       <c r="K175" s="25"/>
-      <c r="L175" s="58"/>
-      <c r="M175" s="58"/>
-      <c r="N175" s="58"/>
-      <c r="O175" s="58"/>
-      <c r="P175" s="58"/>
-      <c r="Q175" s="70"/>
+      <c r="L175" s="59"/>
+      <c r="M175" s="59"/>
+      <c r="N175" s="59"/>
+      <c r="O175" s="59"/>
+      <c r="P175" s="59"/>
+      <c r="Q175" s="41"/>
     </row>
     <row r="176" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C176" s="55"/>
       <c r="D176" s="55"/>
@@ -5782,13 +5776,13 @@
         <v>16</v>
       </c>
       <c r="N178" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O178" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P178" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q178" s="4"/>
     </row>
@@ -6509,8 +6503,8 @@
       <c r="A218" s="3"/>
       <c r="F218" s="22"/>
       <c r="G218" s="22"/>
-      <c r="H218" s="47"/>
-      <c r="I218" s="48"/>
+      <c r="H218" s="49"/>
+      <c r="I218" s="50"/>
       <c r="J218" s="22"/>
       <c r="K218" s="1"/>
       <c r="L218" s="2"/>
@@ -6519,7 +6513,7 @@
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
       <c r="Q218" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6527,7 +6521,7 @@
       <c r="F219" s="16"/>
       <c r="G219" s="16"/>
       <c r="H219" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I219" s="64"/>
       <c r="J219" s="39">
@@ -6535,7 +6529,7 @@
       </c>
       <c r="K219" s="3"/>
       <c r="Q219" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6547,11 +6541,11 @@
       <c r="F220" s="15"/>
       <c r="G220" s="15"/>
       <c r="H220" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I220" s="66"/>
       <c r="J220" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K220" s="13"/>
       <c r="L220" s="14"/>
@@ -6582,183 +6576,183 @@
     </row>
     <row r="222" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
-      <c r="C222" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D222" s="43"/>
-      <c r="E222" s="43"/>
-      <c r="F222" s="43"/>
-      <c r="G222" s="43"/>
-      <c r="H222" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I222" s="45"/>
-      <c r="J222" s="45"/>
+      <c r="C222" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D222" s="45"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="45"/>
+      <c r="G222" s="45"/>
+      <c r="H222" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I222" s="47"/>
+      <c r="J222" s="47"/>
       <c r="K222" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L222" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M222" s="52"/>
-      <c r="N222" s="52"/>
-      <c r="O222" s="52"/>
-      <c r="P222" s="52"/>
-      <c r="Q222" s="69"/>
+      <c r="L222" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M222" s="58"/>
+      <c r="N222" s="58"/>
+      <c r="O222" s="58"/>
+      <c r="P222" s="58"/>
+      <c r="Q222" s="40"/>
     </row>
     <row r="223" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
-      <c r="C223" s="43"/>
-      <c r="D223" s="43"/>
-      <c r="E223" s="43"/>
-      <c r="F223" s="43"/>
-      <c r="G223" s="43"/>
-      <c r="H223" s="45"/>
-      <c r="I223" s="45"/>
-      <c r="J223" s="45"/>
+      <c r="C223" s="45"/>
+      <c r="D223" s="45"/>
+      <c r="E223" s="45"/>
+      <c r="F223" s="45"/>
+      <c r="G223" s="45"/>
+      <c r="H223" s="47"/>
+      <c r="I223" s="47"/>
+      <c r="J223" s="47"/>
       <c r="K223" s="57"/>
-      <c r="L223" s="52"/>
-      <c r="M223" s="52"/>
-      <c r="N223" s="52"/>
-      <c r="O223" s="52"/>
-      <c r="P223" s="52"/>
-      <c r="Q223" s="69"/>
+      <c r="L223" s="58"/>
+      <c r="M223" s="58"/>
+      <c r="N223" s="58"/>
+      <c r="O223" s="58"/>
+      <c r="P223" s="58"/>
+      <c r="Q223" s="40"/>
     </row>
     <row r="224" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
-      <c r="C224" s="43"/>
-      <c r="D224" s="43"/>
-      <c r="E224" s="43"/>
-      <c r="F224" s="43"/>
-      <c r="G224" s="43"/>
-      <c r="H224" s="45"/>
-      <c r="I224" s="45"/>
-      <c r="J224" s="45"/>
+      <c r="C224" s="45"/>
+      <c r="D224" s="45"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="45"/>
+      <c r="G224" s="45"/>
+      <c r="H224" s="47"/>
+      <c r="I224" s="47"/>
+      <c r="J224" s="47"/>
       <c r="K224" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L224" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M224" s="58"/>
-      <c r="N224" s="58"/>
-      <c r="O224" s="58"/>
-      <c r="P224" s="58"/>
-      <c r="Q224" s="70"/>
+      <c r="L224" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M224" s="59"/>
+      <c r="N224" s="59"/>
+      <c r="O224" s="59"/>
+      <c r="P224" s="59"/>
+      <c r="Q224" s="41"/>
     </row>
     <row r="225" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
-      <c r="C225" s="43"/>
-      <c r="D225" s="43"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="43"/>
-      <c r="G225" s="43"/>
-      <c r="H225" s="45"/>
-      <c r="I225" s="45"/>
-      <c r="J225" s="45"/>
+      <c r="C225" s="45"/>
+      <c r="D225" s="45"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="45"/>
+      <c r="G225" s="45"/>
+      <c r="H225" s="47"/>
+      <c r="I225" s="47"/>
+      <c r="J225" s="47"/>
       <c r="K225" s="57"/>
-      <c r="L225" s="58"/>
-      <c r="M225" s="58"/>
-      <c r="N225" s="58"/>
-      <c r="O225" s="58"/>
-      <c r="P225" s="58"/>
-      <c r="Q225" s="70"/>
+      <c r="L225" s="59"/>
+      <c r="M225" s="59"/>
+      <c r="N225" s="59"/>
+      <c r="O225" s="59"/>
+      <c r="P225" s="59"/>
+      <c r="Q225" s="41"/>
     </row>
     <row r="226" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
-      <c r="C226" s="44"/>
-      <c r="D226" s="44"/>
-      <c r="E226" s="44"/>
-      <c r="F226" s="44"/>
-      <c r="G226" s="44"/>
-      <c r="H226" s="46"/>
-      <c r="I226" s="46"/>
-      <c r="J226" s="46"/>
-      <c r="L226" s="58"/>
-      <c r="M226" s="58"/>
-      <c r="N226" s="58"/>
-      <c r="O226" s="58"/>
-      <c r="P226" s="58"/>
-      <c r="Q226" s="70"/>
+      <c r="C226" s="46"/>
+      <c r="D226" s="46"/>
+      <c r="E226" s="46"/>
+      <c r="F226" s="46"/>
+      <c r="G226" s="46"/>
+      <c r="H226" s="48"/>
+      <c r="I226" s="48"/>
+      <c r="J226" s="48"/>
+      <c r="L226" s="59"/>
+      <c r="M226" s="59"/>
+      <c r="N226" s="59"/>
+      <c r="O226" s="59"/>
+      <c r="P226" s="59"/>
+      <c r="Q226" s="41"/>
     </row>
     <row r="227" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
-      <c r="C227" s="49" t="s">
+      <c r="C227" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D227" s="49"/>
-      <c r="E227" s="49"/>
-      <c r="F227" s="49"/>
-      <c r="G227" s="49"/>
-      <c r="H227" s="49"/>
-      <c r="I227" s="49"/>
-      <c r="J227" s="49"/>
+      <c r="D227" s="51"/>
+      <c r="E227" s="51"/>
+      <c r="F227" s="51"/>
+      <c r="G227" s="51"/>
+      <c r="H227" s="51"/>
+      <c r="I227" s="51"/>
+      <c r="J227" s="51"/>
       <c r="K227" s="21"/>
-      <c r="L227" s="58"/>
-      <c r="M227" s="58"/>
-      <c r="N227" s="58"/>
-      <c r="O227" s="58"/>
-      <c r="P227" s="58"/>
-      <c r="Q227" s="70"/>
+      <c r="L227" s="59"/>
+      <c r="M227" s="59"/>
+      <c r="N227" s="59"/>
+      <c r="O227" s="59"/>
+      <c r="P227" s="59"/>
+      <c r="Q227" s="41"/>
     </row>
     <row r="228" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
-      <c r="C228" s="50"/>
-      <c r="D228" s="50"/>
-      <c r="E228" s="50"/>
-      <c r="F228" s="50"/>
-      <c r="G228" s="50"/>
-      <c r="H228" s="50"/>
-      <c r="I228" s="50"/>
-      <c r="J228" s="50"/>
+      <c r="C228" s="52"/>
+      <c r="D228" s="52"/>
+      <c r="E228" s="52"/>
+      <c r="F228" s="52"/>
+      <c r="G228" s="52"/>
+      <c r="H228" s="52"/>
+      <c r="I228" s="52"/>
+      <c r="J228" s="52"/>
       <c r="K228" s="24"/>
-      <c r="L228" s="58"/>
-      <c r="M228" s="58"/>
-      <c r="N228" s="58"/>
-      <c r="O228" s="58"/>
-      <c r="P228" s="58"/>
-      <c r="Q228" s="70"/>
+      <c r="L228" s="59"/>
+      <c r="M228" s="59"/>
+      <c r="N228" s="59"/>
+      <c r="O228" s="59"/>
+      <c r="P228" s="59"/>
+      <c r="Q228" s="41"/>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
-      <c r="C229" s="50"/>
-      <c r="D229" s="50"/>
-      <c r="E229" s="50"/>
-      <c r="F229" s="50"/>
-      <c r="G229" s="50"/>
-      <c r="H229" s="50"/>
-      <c r="I229" s="50"/>
-      <c r="J229" s="50"/>
+      <c r="C229" s="52"/>
+      <c r="D229" s="52"/>
+      <c r="E229" s="52"/>
+      <c r="F229" s="52"/>
+      <c r="G229" s="52"/>
+      <c r="H229" s="52"/>
+      <c r="I229" s="52"/>
+      <c r="J229" s="52"/>
       <c r="K229" s="24"/>
-      <c r="L229" s="58"/>
-      <c r="M229" s="58"/>
-      <c r="N229" s="58"/>
-      <c r="O229" s="58"/>
-      <c r="P229" s="58"/>
-      <c r="Q229" s="70"/>
+      <c r="L229" s="59"/>
+      <c r="M229" s="59"/>
+      <c r="N229" s="59"/>
+      <c r="O229" s="59"/>
+      <c r="P229" s="59"/>
+      <c r="Q229" s="41"/>
     </row>
     <row r="230" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
-      <c r="C230" s="51"/>
-      <c r="D230" s="51"/>
-      <c r="E230" s="51"/>
-      <c r="F230" s="51"/>
-      <c r="G230" s="51"/>
-      <c r="H230" s="51"/>
-      <c r="I230" s="51"/>
-      <c r="J230" s="51"/>
+      <c r="C230" s="53"/>
+      <c r="D230" s="53"/>
+      <c r="E230" s="53"/>
+      <c r="F230" s="53"/>
+      <c r="G230" s="53"/>
+      <c r="H230" s="53"/>
+      <c r="I230" s="53"/>
+      <c r="J230" s="53"/>
       <c r="K230" s="25"/>
-      <c r="L230" s="58"/>
-      <c r="M230" s="58"/>
-      <c r="N230" s="58"/>
-      <c r="O230" s="58"/>
-      <c r="P230" s="58"/>
-      <c r="Q230" s="70"/>
+      <c r="L230" s="59"/>
+      <c r="M230" s="59"/>
+      <c r="N230" s="59"/>
+      <c r="O230" s="59"/>
+      <c r="P230" s="59"/>
+      <c r="Q230" s="41"/>
     </row>
     <row r="231" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C231" s="55"/>
       <c r="D231" s="55"/>
@@ -6820,13 +6814,13 @@
         <v>16</v>
       </c>
       <c r="N233" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O233" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P233" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q233" s="4"/>
     </row>
@@ -7547,8 +7541,8 @@
       <c r="A273" s="3"/>
       <c r="F273" s="22"/>
       <c r="G273" s="22"/>
-      <c r="H273" s="47"/>
-      <c r="I273" s="48"/>
+      <c r="H273" s="49"/>
+      <c r="I273" s="50"/>
       <c r="J273" s="22"/>
       <c r="K273" s="1"/>
       <c r="L273" s="2"/>
@@ -7557,7 +7551,7 @@
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
       <c r="Q273" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7565,7 +7559,7 @@
       <c r="F274" s="16"/>
       <c r="G274" s="16"/>
       <c r="H274" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I274" s="64"/>
       <c r="J274" s="39">
@@ -7573,7 +7567,7 @@
       </c>
       <c r="K274" s="3"/>
       <c r="Q274" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="275" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7585,11 +7579,11 @@
       <c r="F275" s="15"/>
       <c r="G275" s="15"/>
       <c r="H275" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I275" s="66"/>
       <c r="J275" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K275" s="13"/>
       <c r="L275" s="14"/>
@@ -7620,183 +7614,183 @@
     </row>
     <row r="277" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
-      <c r="C277" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D277" s="43"/>
-      <c r="E277" s="43"/>
-      <c r="F277" s="43"/>
-      <c r="G277" s="43"/>
-      <c r="H277" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I277" s="45"/>
-      <c r="J277" s="45"/>
+      <c r="C277" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D277" s="45"/>
+      <c r="E277" s="45"/>
+      <c r="F277" s="45"/>
+      <c r="G277" s="45"/>
+      <c r="H277" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I277" s="47"/>
+      <c r="J277" s="47"/>
       <c r="K277" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L277" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M277" s="52"/>
-      <c r="N277" s="52"/>
-      <c r="O277" s="52"/>
-      <c r="P277" s="52"/>
-      <c r="Q277" s="69"/>
+      <c r="L277" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M277" s="58"/>
+      <c r="N277" s="58"/>
+      <c r="O277" s="58"/>
+      <c r="P277" s="58"/>
+      <c r="Q277" s="40"/>
     </row>
     <row r="278" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
-      <c r="C278" s="43"/>
-      <c r="D278" s="43"/>
-      <c r="E278" s="43"/>
-      <c r="F278" s="43"/>
-      <c r="G278" s="43"/>
-      <c r="H278" s="45"/>
-      <c r="I278" s="45"/>
-      <c r="J278" s="45"/>
+      <c r="C278" s="45"/>
+      <c r="D278" s="45"/>
+      <c r="E278" s="45"/>
+      <c r="F278" s="45"/>
+      <c r="G278" s="45"/>
+      <c r="H278" s="47"/>
+      <c r="I278" s="47"/>
+      <c r="J278" s="47"/>
       <c r="K278" s="57"/>
-      <c r="L278" s="52"/>
-      <c r="M278" s="52"/>
-      <c r="N278" s="52"/>
-      <c r="O278" s="52"/>
-      <c r="P278" s="52"/>
-      <c r="Q278" s="69"/>
+      <c r="L278" s="58"/>
+      <c r="M278" s="58"/>
+      <c r="N278" s="58"/>
+      <c r="O278" s="58"/>
+      <c r="P278" s="58"/>
+      <c r="Q278" s="40"/>
     </row>
     <row r="279" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
-      <c r="C279" s="43"/>
-      <c r="D279" s="43"/>
-      <c r="E279" s="43"/>
-      <c r="F279" s="43"/>
-      <c r="G279" s="43"/>
-      <c r="H279" s="45"/>
-      <c r="I279" s="45"/>
-      <c r="J279" s="45"/>
+      <c r="C279" s="45"/>
+      <c r="D279" s="45"/>
+      <c r="E279" s="45"/>
+      <c r="F279" s="45"/>
+      <c r="G279" s="45"/>
+      <c r="H279" s="47"/>
+      <c r="I279" s="47"/>
+      <c r="J279" s="47"/>
       <c r="K279" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L279" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M279" s="58"/>
-      <c r="N279" s="58"/>
-      <c r="O279" s="58"/>
-      <c r="P279" s="58"/>
-      <c r="Q279" s="70"/>
+      <c r="L279" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M279" s="59"/>
+      <c r="N279" s="59"/>
+      <c r="O279" s="59"/>
+      <c r="P279" s="59"/>
+      <c r="Q279" s="41"/>
     </row>
     <row r="280" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
-      <c r="C280" s="43"/>
-      <c r="D280" s="43"/>
-      <c r="E280" s="43"/>
-      <c r="F280" s="43"/>
-      <c r="G280" s="43"/>
-      <c r="H280" s="45"/>
-      <c r="I280" s="45"/>
-      <c r="J280" s="45"/>
+      <c r="C280" s="45"/>
+      <c r="D280" s="45"/>
+      <c r="E280" s="45"/>
+      <c r="F280" s="45"/>
+      <c r="G280" s="45"/>
+      <c r="H280" s="47"/>
+      <c r="I280" s="47"/>
+      <c r="J280" s="47"/>
       <c r="K280" s="57"/>
-      <c r="L280" s="58"/>
-      <c r="M280" s="58"/>
-      <c r="N280" s="58"/>
-      <c r="O280" s="58"/>
-      <c r="P280" s="58"/>
-      <c r="Q280" s="70"/>
+      <c r="L280" s="59"/>
+      <c r="M280" s="59"/>
+      <c r="N280" s="59"/>
+      <c r="O280" s="59"/>
+      <c r="P280" s="59"/>
+      <c r="Q280" s="41"/>
     </row>
     <row r="281" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
-      <c r="C281" s="44"/>
-      <c r="D281" s="44"/>
-      <c r="E281" s="44"/>
-      <c r="F281" s="44"/>
-      <c r="G281" s="44"/>
-      <c r="H281" s="46"/>
-      <c r="I281" s="46"/>
-      <c r="J281" s="46"/>
-      <c r="L281" s="58"/>
-      <c r="M281" s="58"/>
-      <c r="N281" s="58"/>
-      <c r="O281" s="58"/>
-      <c r="P281" s="58"/>
-      <c r="Q281" s="70"/>
+      <c r="C281" s="46"/>
+      <c r="D281" s="46"/>
+      <c r="E281" s="46"/>
+      <c r="F281" s="46"/>
+      <c r="G281" s="46"/>
+      <c r="H281" s="48"/>
+      <c r="I281" s="48"/>
+      <c r="J281" s="48"/>
+      <c r="L281" s="59"/>
+      <c r="M281" s="59"/>
+      <c r="N281" s="59"/>
+      <c r="O281" s="59"/>
+      <c r="P281" s="59"/>
+      <c r="Q281" s="41"/>
     </row>
     <row r="282" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
-      <c r="C282" s="49" t="s">
+      <c r="C282" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D282" s="49"/>
-      <c r="E282" s="49"/>
-      <c r="F282" s="49"/>
-      <c r="G282" s="49"/>
-      <c r="H282" s="49"/>
-      <c r="I282" s="49"/>
-      <c r="J282" s="49"/>
+      <c r="D282" s="51"/>
+      <c r="E282" s="51"/>
+      <c r="F282" s="51"/>
+      <c r="G282" s="51"/>
+      <c r="H282" s="51"/>
+      <c r="I282" s="51"/>
+      <c r="J282" s="51"/>
       <c r="K282" s="21"/>
-      <c r="L282" s="58"/>
-      <c r="M282" s="58"/>
-      <c r="N282" s="58"/>
-      <c r="O282" s="58"/>
-      <c r="P282" s="58"/>
-      <c r="Q282" s="70"/>
+      <c r="L282" s="59"/>
+      <c r="M282" s="59"/>
+      <c r="N282" s="59"/>
+      <c r="O282" s="59"/>
+      <c r="P282" s="59"/>
+      <c r="Q282" s="41"/>
     </row>
     <row r="283" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
-      <c r="C283" s="50"/>
-      <c r="D283" s="50"/>
-      <c r="E283" s="50"/>
-      <c r="F283" s="50"/>
-      <c r="G283" s="50"/>
-      <c r="H283" s="50"/>
-      <c r="I283" s="50"/>
-      <c r="J283" s="50"/>
+      <c r="C283" s="52"/>
+      <c r="D283" s="52"/>
+      <c r="E283" s="52"/>
+      <c r="F283" s="52"/>
+      <c r="G283" s="52"/>
+      <c r="H283" s="52"/>
+      <c r="I283" s="52"/>
+      <c r="J283" s="52"/>
       <c r="K283" s="24"/>
-      <c r="L283" s="58"/>
-      <c r="M283" s="58"/>
-      <c r="N283" s="58"/>
-      <c r="O283" s="58"/>
-      <c r="P283" s="58"/>
-      <c r="Q283" s="70"/>
+      <c r="L283" s="59"/>
+      <c r="M283" s="59"/>
+      <c r="N283" s="59"/>
+      <c r="O283" s="59"/>
+      <c r="P283" s="59"/>
+      <c r="Q283" s="41"/>
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
-      <c r="C284" s="50"/>
-      <c r="D284" s="50"/>
-      <c r="E284" s="50"/>
-      <c r="F284" s="50"/>
-      <c r="G284" s="50"/>
-      <c r="H284" s="50"/>
-      <c r="I284" s="50"/>
-      <c r="J284" s="50"/>
+      <c r="C284" s="52"/>
+      <c r="D284" s="52"/>
+      <c r="E284" s="52"/>
+      <c r="F284" s="52"/>
+      <c r="G284" s="52"/>
+      <c r="H284" s="52"/>
+      <c r="I284" s="52"/>
+      <c r="J284" s="52"/>
       <c r="K284" s="24"/>
-      <c r="L284" s="58"/>
-      <c r="M284" s="58"/>
-      <c r="N284" s="58"/>
-      <c r="O284" s="58"/>
-      <c r="P284" s="58"/>
-      <c r="Q284" s="70"/>
+      <c r="L284" s="59"/>
+      <c r="M284" s="59"/>
+      <c r="N284" s="59"/>
+      <c r="O284" s="59"/>
+      <c r="P284" s="59"/>
+      <c r="Q284" s="41"/>
     </row>
     <row r="285" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
-      <c r="C285" s="51"/>
-      <c r="D285" s="51"/>
-      <c r="E285" s="51"/>
-      <c r="F285" s="51"/>
-      <c r="G285" s="51"/>
-      <c r="H285" s="51"/>
-      <c r="I285" s="51"/>
-      <c r="J285" s="51"/>
+      <c r="C285" s="53"/>
+      <c r="D285" s="53"/>
+      <c r="E285" s="53"/>
+      <c r="F285" s="53"/>
+      <c r="G285" s="53"/>
+      <c r="H285" s="53"/>
+      <c r="I285" s="53"/>
+      <c r="J285" s="53"/>
       <c r="K285" s="25"/>
-      <c r="L285" s="58"/>
-      <c r="M285" s="58"/>
-      <c r="N285" s="58"/>
-      <c r="O285" s="58"/>
-      <c r="P285" s="58"/>
-      <c r="Q285" s="70"/>
+      <c r="L285" s="59"/>
+      <c r="M285" s="59"/>
+      <c r="N285" s="59"/>
+      <c r="O285" s="59"/>
+      <c r="P285" s="59"/>
+      <c r="Q285" s="41"/>
     </row>
     <row r="286" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C286" s="55"/>
       <c r="D286" s="55"/>
@@ -7858,13 +7852,13 @@
         <v>16</v>
       </c>
       <c r="N288" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O288" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P288" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q288" s="4"/>
     </row>
@@ -8585,8 +8579,8 @@
       <c r="A328" s="3"/>
       <c r="F328" s="22"/>
       <c r="G328" s="22"/>
-      <c r="H328" s="47"/>
-      <c r="I328" s="48"/>
+      <c r="H328" s="49"/>
+      <c r="I328" s="50"/>
       <c r="J328" s="22"/>
       <c r="K328" s="1"/>
       <c r="L328" s="2"/>
@@ -8595,7 +8589,7 @@
       <c r="O328" s="2"/>
       <c r="P328" s="2"/>
       <c r="Q328" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="329" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8603,7 +8597,7 @@
       <c r="F329" s="16"/>
       <c r="G329" s="16"/>
       <c r="H329" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I329" s="64"/>
       <c r="J329" s="39">
@@ -8611,7 +8605,7 @@
       </c>
       <c r="K329" s="3"/>
       <c r="Q329" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="330" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8623,11 +8617,11 @@
       <c r="F330" s="15"/>
       <c r="G330" s="15"/>
       <c r="H330" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I330" s="66"/>
       <c r="J330" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K330" s="13"/>
       <c r="L330" s="14"/>
@@ -8658,183 +8652,183 @@
     </row>
     <row r="332" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
-      <c r="C332" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D332" s="43"/>
-      <c r="E332" s="43"/>
-      <c r="F332" s="43"/>
-      <c r="G332" s="43"/>
-      <c r="H332" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I332" s="45"/>
-      <c r="J332" s="45"/>
+      <c r="C332" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332" s="45"/>
+      <c r="E332" s="45"/>
+      <c r="F332" s="45"/>
+      <c r="G332" s="45"/>
+      <c r="H332" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I332" s="47"/>
+      <c r="J332" s="47"/>
       <c r="K332" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L332" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M332" s="52"/>
-      <c r="N332" s="52"/>
-      <c r="O332" s="52"/>
-      <c r="P332" s="52"/>
-      <c r="Q332" s="69"/>
+      <c r="L332" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M332" s="58"/>
+      <c r="N332" s="58"/>
+      <c r="O332" s="58"/>
+      <c r="P332" s="58"/>
+      <c r="Q332" s="40"/>
     </row>
     <row r="333" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
-      <c r="C333" s="43"/>
-      <c r="D333" s="43"/>
-      <c r="E333" s="43"/>
-      <c r="F333" s="43"/>
-      <c r="G333" s="43"/>
-      <c r="H333" s="45"/>
-      <c r="I333" s="45"/>
-      <c r="J333" s="45"/>
+      <c r="C333" s="45"/>
+      <c r="D333" s="45"/>
+      <c r="E333" s="45"/>
+      <c r="F333" s="45"/>
+      <c r="G333" s="45"/>
+      <c r="H333" s="47"/>
+      <c r="I333" s="47"/>
+      <c r="J333" s="47"/>
       <c r="K333" s="57"/>
-      <c r="L333" s="52"/>
-      <c r="M333" s="52"/>
-      <c r="N333" s="52"/>
-      <c r="O333" s="52"/>
-      <c r="P333" s="52"/>
-      <c r="Q333" s="69"/>
+      <c r="L333" s="58"/>
+      <c r="M333" s="58"/>
+      <c r="N333" s="58"/>
+      <c r="O333" s="58"/>
+      <c r="P333" s="58"/>
+      <c r="Q333" s="40"/>
     </row>
     <row r="334" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
-      <c r="C334" s="43"/>
-      <c r="D334" s="43"/>
-      <c r="E334" s="43"/>
-      <c r="F334" s="43"/>
-      <c r="G334" s="43"/>
-      <c r="H334" s="45"/>
-      <c r="I334" s="45"/>
-      <c r="J334" s="45"/>
+      <c r="C334" s="45"/>
+      <c r="D334" s="45"/>
+      <c r="E334" s="45"/>
+      <c r="F334" s="45"/>
+      <c r="G334" s="45"/>
+      <c r="H334" s="47"/>
+      <c r="I334" s="47"/>
+      <c r="J334" s="47"/>
       <c r="K334" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L334" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M334" s="58"/>
-      <c r="N334" s="58"/>
-      <c r="O334" s="58"/>
-      <c r="P334" s="58"/>
-      <c r="Q334" s="70"/>
+      <c r="L334" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M334" s="59"/>
+      <c r="N334" s="59"/>
+      <c r="O334" s="59"/>
+      <c r="P334" s="59"/>
+      <c r="Q334" s="41"/>
     </row>
     <row r="335" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
-      <c r="C335" s="43"/>
-      <c r="D335" s="43"/>
-      <c r="E335" s="43"/>
-      <c r="F335" s="43"/>
-      <c r="G335" s="43"/>
-      <c r="H335" s="45"/>
-      <c r="I335" s="45"/>
-      <c r="J335" s="45"/>
+      <c r="C335" s="45"/>
+      <c r="D335" s="45"/>
+      <c r="E335" s="45"/>
+      <c r="F335" s="45"/>
+      <c r="G335" s="45"/>
+      <c r="H335" s="47"/>
+      <c r="I335" s="47"/>
+      <c r="J335" s="47"/>
       <c r="K335" s="57"/>
-      <c r="L335" s="58"/>
-      <c r="M335" s="58"/>
-      <c r="N335" s="58"/>
-      <c r="O335" s="58"/>
-      <c r="P335" s="58"/>
-      <c r="Q335" s="70"/>
+      <c r="L335" s="59"/>
+      <c r="M335" s="59"/>
+      <c r="N335" s="59"/>
+      <c r="O335" s="59"/>
+      <c r="P335" s="59"/>
+      <c r="Q335" s="41"/>
     </row>
     <row r="336" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
-      <c r="C336" s="44"/>
-      <c r="D336" s="44"/>
-      <c r="E336" s="44"/>
-      <c r="F336" s="44"/>
-      <c r="G336" s="44"/>
-      <c r="H336" s="46"/>
-      <c r="I336" s="46"/>
-      <c r="J336" s="46"/>
-      <c r="L336" s="58"/>
-      <c r="M336" s="58"/>
-      <c r="N336" s="58"/>
-      <c r="O336" s="58"/>
-      <c r="P336" s="58"/>
-      <c r="Q336" s="70"/>
+      <c r="C336" s="46"/>
+      <c r="D336" s="46"/>
+      <c r="E336" s="46"/>
+      <c r="F336" s="46"/>
+      <c r="G336" s="46"/>
+      <c r="H336" s="48"/>
+      <c r="I336" s="48"/>
+      <c r="J336" s="48"/>
+      <c r="L336" s="59"/>
+      <c r="M336" s="59"/>
+      <c r="N336" s="59"/>
+      <c r="O336" s="59"/>
+      <c r="P336" s="59"/>
+      <c r="Q336" s="41"/>
     </row>
     <row r="337" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
-      <c r="C337" s="49" t="s">
+      <c r="C337" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D337" s="49"/>
-      <c r="E337" s="49"/>
-      <c r="F337" s="49"/>
-      <c r="G337" s="49"/>
-      <c r="H337" s="49"/>
-      <c r="I337" s="49"/>
-      <c r="J337" s="49"/>
+      <c r="D337" s="51"/>
+      <c r="E337" s="51"/>
+      <c r="F337" s="51"/>
+      <c r="G337" s="51"/>
+      <c r="H337" s="51"/>
+      <c r="I337" s="51"/>
+      <c r="J337" s="51"/>
       <c r="K337" s="21"/>
-      <c r="L337" s="58"/>
-      <c r="M337" s="58"/>
-      <c r="N337" s="58"/>
-      <c r="O337" s="58"/>
-      <c r="P337" s="58"/>
-      <c r="Q337" s="70"/>
+      <c r="L337" s="59"/>
+      <c r="M337" s="59"/>
+      <c r="N337" s="59"/>
+      <c r="O337" s="59"/>
+      <c r="P337" s="59"/>
+      <c r="Q337" s="41"/>
     </row>
     <row r="338" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
-      <c r="C338" s="50"/>
-      <c r="D338" s="50"/>
-      <c r="E338" s="50"/>
-      <c r="F338" s="50"/>
-      <c r="G338" s="50"/>
-      <c r="H338" s="50"/>
-      <c r="I338" s="50"/>
-      <c r="J338" s="50"/>
+      <c r="C338" s="52"/>
+      <c r="D338" s="52"/>
+      <c r="E338" s="52"/>
+      <c r="F338" s="52"/>
+      <c r="G338" s="52"/>
+      <c r="H338" s="52"/>
+      <c r="I338" s="52"/>
+      <c r="J338" s="52"/>
       <c r="K338" s="24"/>
-      <c r="L338" s="58"/>
-      <c r="M338" s="58"/>
-      <c r="N338" s="58"/>
-      <c r="O338" s="58"/>
-      <c r="P338" s="58"/>
-      <c r="Q338" s="70"/>
+      <c r="L338" s="59"/>
+      <c r="M338" s="59"/>
+      <c r="N338" s="59"/>
+      <c r="O338" s="59"/>
+      <c r="P338" s="59"/>
+      <c r="Q338" s="41"/>
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
-      <c r="C339" s="50"/>
-      <c r="D339" s="50"/>
-      <c r="E339" s="50"/>
-      <c r="F339" s="50"/>
-      <c r="G339" s="50"/>
-      <c r="H339" s="50"/>
-      <c r="I339" s="50"/>
-      <c r="J339" s="50"/>
+      <c r="C339" s="52"/>
+      <c r="D339" s="52"/>
+      <c r="E339" s="52"/>
+      <c r="F339" s="52"/>
+      <c r="G339" s="52"/>
+      <c r="H339" s="52"/>
+      <c r="I339" s="52"/>
+      <c r="J339" s="52"/>
       <c r="K339" s="24"/>
-      <c r="L339" s="58"/>
-      <c r="M339" s="58"/>
-      <c r="N339" s="58"/>
-      <c r="O339" s="58"/>
-      <c r="P339" s="58"/>
-      <c r="Q339" s="70"/>
+      <c r="L339" s="59"/>
+      <c r="M339" s="59"/>
+      <c r="N339" s="59"/>
+      <c r="O339" s="59"/>
+      <c r="P339" s="59"/>
+      <c r="Q339" s="41"/>
     </row>
     <row r="340" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
-      <c r="C340" s="51"/>
-      <c r="D340" s="51"/>
-      <c r="E340" s="51"/>
-      <c r="F340" s="51"/>
-      <c r="G340" s="51"/>
-      <c r="H340" s="51"/>
-      <c r="I340" s="51"/>
-      <c r="J340" s="51"/>
+      <c r="C340" s="53"/>
+      <c r="D340" s="53"/>
+      <c r="E340" s="53"/>
+      <c r="F340" s="53"/>
+      <c r="G340" s="53"/>
+      <c r="H340" s="53"/>
+      <c r="I340" s="53"/>
+      <c r="J340" s="53"/>
       <c r="K340" s="25"/>
-      <c r="L340" s="58"/>
-      <c r="M340" s="58"/>
-      <c r="N340" s="58"/>
-      <c r="O340" s="58"/>
-      <c r="P340" s="58"/>
-      <c r="Q340" s="70"/>
+      <c r="L340" s="59"/>
+      <c r="M340" s="59"/>
+      <c r="N340" s="59"/>
+      <c r="O340" s="59"/>
+      <c r="P340" s="59"/>
+      <c r="Q340" s="41"/>
     </row>
     <row r="341" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C341" s="55"/>
       <c r="D341" s="55"/>
@@ -8896,13 +8890,13 @@
         <v>16</v>
       </c>
       <c r="N343" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O343" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P343" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q343" s="4"/>
     </row>
@@ -9623,8 +9617,8 @@
       <c r="A383" s="3"/>
       <c r="F383" s="22"/>
       <c r="G383" s="22"/>
-      <c r="H383" s="47"/>
-      <c r="I383" s="48"/>
+      <c r="H383" s="49"/>
+      <c r="I383" s="50"/>
       <c r="J383" s="22"/>
       <c r="K383" s="1"/>
       <c r="L383" s="2"/>
@@ -9633,7 +9627,7 @@
       <c r="O383" s="2"/>
       <c r="P383" s="2"/>
       <c r="Q383" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="384" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9641,7 +9635,7 @@
       <c r="F384" s="16"/>
       <c r="G384" s="16"/>
       <c r="H384" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I384" s="64"/>
       <c r="J384" s="39">
@@ -9649,7 +9643,7 @@
       </c>
       <c r="K384" s="3"/>
       <c r="Q384" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="385" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9661,11 +9655,11 @@
       <c r="F385" s="15"/>
       <c r="G385" s="15"/>
       <c r="H385" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I385" s="66"/>
       <c r="J385" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K385" s="13"/>
       <c r="L385" s="14"/>
@@ -9696,183 +9690,183 @@
     </row>
     <row r="387" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
-      <c r="C387" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D387" s="43"/>
-      <c r="E387" s="43"/>
-      <c r="F387" s="43"/>
-      <c r="G387" s="43"/>
-      <c r="H387" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I387" s="45"/>
-      <c r="J387" s="45"/>
+      <c r="C387" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D387" s="45"/>
+      <c r="E387" s="45"/>
+      <c r="F387" s="45"/>
+      <c r="G387" s="45"/>
+      <c r="H387" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I387" s="47"/>
+      <c r="J387" s="47"/>
       <c r="K387" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L387" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M387" s="52"/>
-      <c r="N387" s="52"/>
-      <c r="O387" s="52"/>
-      <c r="P387" s="52"/>
-      <c r="Q387" s="69"/>
+      <c r="L387" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M387" s="58"/>
+      <c r="N387" s="58"/>
+      <c r="O387" s="58"/>
+      <c r="P387" s="58"/>
+      <c r="Q387" s="40"/>
     </row>
     <row r="388" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
-      <c r="C388" s="43"/>
-      <c r="D388" s="43"/>
-      <c r="E388" s="43"/>
-      <c r="F388" s="43"/>
-      <c r="G388" s="43"/>
-      <c r="H388" s="45"/>
-      <c r="I388" s="45"/>
-      <c r="J388" s="45"/>
+      <c r="C388" s="45"/>
+      <c r="D388" s="45"/>
+      <c r="E388" s="45"/>
+      <c r="F388" s="45"/>
+      <c r="G388" s="45"/>
+      <c r="H388" s="47"/>
+      <c r="I388" s="47"/>
+      <c r="J388" s="47"/>
       <c r="K388" s="57"/>
-      <c r="L388" s="52"/>
-      <c r="M388" s="52"/>
-      <c r="N388" s="52"/>
-      <c r="O388" s="52"/>
-      <c r="P388" s="52"/>
-      <c r="Q388" s="69"/>
+      <c r="L388" s="58"/>
+      <c r="M388" s="58"/>
+      <c r="N388" s="58"/>
+      <c r="O388" s="58"/>
+      <c r="P388" s="58"/>
+      <c r="Q388" s="40"/>
     </row>
     <row r="389" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
-      <c r="C389" s="43"/>
-      <c r="D389" s="43"/>
-      <c r="E389" s="43"/>
-      <c r="F389" s="43"/>
-      <c r="G389" s="43"/>
-      <c r="H389" s="45"/>
-      <c r="I389" s="45"/>
-      <c r="J389" s="45"/>
+      <c r="C389" s="45"/>
+      <c r="D389" s="45"/>
+      <c r="E389" s="45"/>
+      <c r="F389" s="45"/>
+      <c r="G389" s="45"/>
+      <c r="H389" s="47"/>
+      <c r="I389" s="47"/>
+      <c r="J389" s="47"/>
       <c r="K389" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L389" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M389" s="58"/>
-      <c r="N389" s="58"/>
-      <c r="O389" s="58"/>
-      <c r="P389" s="58"/>
-      <c r="Q389" s="70"/>
+      <c r="L389" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M389" s="59"/>
+      <c r="N389" s="59"/>
+      <c r="O389" s="59"/>
+      <c r="P389" s="59"/>
+      <c r="Q389" s="41"/>
     </row>
     <row r="390" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
-      <c r="C390" s="43"/>
-      <c r="D390" s="43"/>
-      <c r="E390" s="43"/>
-      <c r="F390" s="43"/>
-      <c r="G390" s="43"/>
-      <c r="H390" s="45"/>
-      <c r="I390" s="45"/>
-      <c r="J390" s="45"/>
+      <c r="C390" s="45"/>
+      <c r="D390" s="45"/>
+      <c r="E390" s="45"/>
+      <c r="F390" s="45"/>
+      <c r="G390" s="45"/>
+      <c r="H390" s="47"/>
+      <c r="I390" s="47"/>
+      <c r="J390" s="47"/>
       <c r="K390" s="57"/>
-      <c r="L390" s="58"/>
-      <c r="M390" s="58"/>
-      <c r="N390" s="58"/>
-      <c r="O390" s="58"/>
-      <c r="P390" s="58"/>
-      <c r="Q390" s="70"/>
+      <c r="L390" s="59"/>
+      <c r="M390" s="59"/>
+      <c r="N390" s="59"/>
+      <c r="O390" s="59"/>
+      <c r="P390" s="59"/>
+      <c r="Q390" s="41"/>
     </row>
     <row r="391" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3"/>
-      <c r="C391" s="44"/>
-      <c r="D391" s="44"/>
-      <c r="E391" s="44"/>
-      <c r="F391" s="44"/>
-      <c r="G391" s="44"/>
-      <c r="H391" s="46"/>
-      <c r="I391" s="46"/>
-      <c r="J391" s="46"/>
-      <c r="L391" s="58"/>
-      <c r="M391" s="58"/>
-      <c r="N391" s="58"/>
-      <c r="O391" s="58"/>
-      <c r="P391" s="58"/>
-      <c r="Q391" s="70"/>
+      <c r="C391" s="46"/>
+      <c r="D391" s="46"/>
+      <c r="E391" s="46"/>
+      <c r="F391" s="46"/>
+      <c r="G391" s="46"/>
+      <c r="H391" s="48"/>
+      <c r="I391" s="48"/>
+      <c r="J391" s="48"/>
+      <c r="L391" s="59"/>
+      <c r="M391" s="59"/>
+      <c r="N391" s="59"/>
+      <c r="O391" s="59"/>
+      <c r="P391" s="59"/>
+      <c r="Q391" s="41"/>
     </row>
     <row r="392" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
-      <c r="C392" s="49" t="s">
+      <c r="C392" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D392" s="49"/>
-      <c r="E392" s="49"/>
-      <c r="F392" s="49"/>
-      <c r="G392" s="49"/>
-      <c r="H392" s="49"/>
-      <c r="I392" s="49"/>
-      <c r="J392" s="49"/>
+      <c r="D392" s="51"/>
+      <c r="E392" s="51"/>
+      <c r="F392" s="51"/>
+      <c r="G392" s="51"/>
+      <c r="H392" s="51"/>
+      <c r="I392" s="51"/>
+      <c r="J392" s="51"/>
       <c r="K392" s="21"/>
-      <c r="L392" s="58"/>
-      <c r="M392" s="58"/>
-      <c r="N392" s="58"/>
-      <c r="O392" s="58"/>
-      <c r="P392" s="58"/>
-      <c r="Q392" s="70"/>
+      <c r="L392" s="59"/>
+      <c r="M392" s="59"/>
+      <c r="N392" s="59"/>
+      <c r="O392" s="59"/>
+      <c r="P392" s="59"/>
+      <c r="Q392" s="41"/>
     </row>
     <row r="393" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
-      <c r="C393" s="50"/>
-      <c r="D393" s="50"/>
-      <c r="E393" s="50"/>
-      <c r="F393" s="50"/>
-      <c r="G393" s="50"/>
-      <c r="H393" s="50"/>
-      <c r="I393" s="50"/>
-      <c r="J393" s="50"/>
+      <c r="C393" s="52"/>
+      <c r="D393" s="52"/>
+      <c r="E393" s="52"/>
+      <c r="F393" s="52"/>
+      <c r="G393" s="52"/>
+      <c r="H393" s="52"/>
+      <c r="I393" s="52"/>
+      <c r="J393" s="52"/>
       <c r="K393" s="24"/>
-      <c r="L393" s="58"/>
-      <c r="M393" s="58"/>
-      <c r="N393" s="58"/>
-      <c r="O393" s="58"/>
-      <c r="P393" s="58"/>
-      <c r="Q393" s="70"/>
+      <c r="L393" s="59"/>
+      <c r="M393" s="59"/>
+      <c r="N393" s="59"/>
+      <c r="O393" s="59"/>
+      <c r="P393" s="59"/>
+      <c r="Q393" s="41"/>
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
-      <c r="C394" s="50"/>
-      <c r="D394" s="50"/>
-      <c r="E394" s="50"/>
-      <c r="F394" s="50"/>
-      <c r="G394" s="50"/>
-      <c r="H394" s="50"/>
-      <c r="I394" s="50"/>
-      <c r="J394" s="50"/>
+      <c r="C394" s="52"/>
+      <c r="D394" s="52"/>
+      <c r="E394" s="52"/>
+      <c r="F394" s="52"/>
+      <c r="G394" s="52"/>
+      <c r="H394" s="52"/>
+      <c r="I394" s="52"/>
+      <c r="J394" s="52"/>
       <c r="K394" s="24"/>
-      <c r="L394" s="58"/>
-      <c r="M394" s="58"/>
-      <c r="N394" s="58"/>
-      <c r="O394" s="58"/>
-      <c r="P394" s="58"/>
-      <c r="Q394" s="70"/>
+      <c r="L394" s="59"/>
+      <c r="M394" s="59"/>
+      <c r="N394" s="59"/>
+      <c r="O394" s="59"/>
+      <c r="P394" s="59"/>
+      <c r="Q394" s="41"/>
     </row>
     <row r="395" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
-      <c r="C395" s="51"/>
-      <c r="D395" s="51"/>
-      <c r="E395" s="51"/>
-      <c r="F395" s="51"/>
-      <c r="G395" s="51"/>
-      <c r="H395" s="51"/>
-      <c r="I395" s="51"/>
-      <c r="J395" s="51"/>
+      <c r="C395" s="53"/>
+      <c r="D395" s="53"/>
+      <c r="E395" s="53"/>
+      <c r="F395" s="53"/>
+      <c r="G395" s="53"/>
+      <c r="H395" s="53"/>
+      <c r="I395" s="53"/>
+      <c r="J395" s="53"/>
       <c r="K395" s="25"/>
-      <c r="L395" s="58"/>
-      <c r="M395" s="58"/>
-      <c r="N395" s="58"/>
-      <c r="O395" s="58"/>
-      <c r="P395" s="58"/>
-      <c r="Q395" s="70"/>
+      <c r="L395" s="59"/>
+      <c r="M395" s="59"/>
+      <c r="N395" s="59"/>
+      <c r="O395" s="59"/>
+      <c r="P395" s="59"/>
+      <c r="Q395" s="41"/>
     </row>
     <row r="396" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C396" s="55"/>
       <c r="D396" s="55"/>
@@ -9934,13 +9928,13 @@
         <v>16</v>
       </c>
       <c r="N398" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O398" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P398" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q398" s="4"/>
     </row>
@@ -10661,8 +10655,8 @@
       <c r="A438" s="3"/>
       <c r="F438" s="22"/>
       <c r="G438" s="22"/>
-      <c r="H438" s="47"/>
-      <c r="I438" s="48"/>
+      <c r="H438" s="49"/>
+      <c r="I438" s="50"/>
       <c r="J438" s="22"/>
       <c r="K438" s="1"/>
       <c r="L438" s="2"/>
@@ -10671,7 +10665,7 @@
       <c r="O438" s="2"/>
       <c r="P438" s="2"/>
       <c r="Q438" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="439" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10679,7 +10673,7 @@
       <c r="F439" s="16"/>
       <c r="G439" s="16"/>
       <c r="H439" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I439" s="64"/>
       <c r="J439" s="39">
@@ -10687,7 +10681,7 @@
       </c>
       <c r="K439" s="3"/>
       <c r="Q439" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="440" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10699,11 +10693,11 @@
       <c r="F440" s="15"/>
       <c r="G440" s="15"/>
       <c r="H440" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I440" s="66"/>
       <c r="J440" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K440" s="13"/>
       <c r="L440" s="14"/>
@@ -10734,183 +10728,183 @@
     </row>
     <row r="442" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
-      <c r="C442" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D442" s="43"/>
-      <c r="E442" s="43"/>
-      <c r="F442" s="43"/>
-      <c r="G442" s="43"/>
-      <c r="H442" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I442" s="45"/>
-      <c r="J442" s="45"/>
+      <c r="C442" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D442" s="45"/>
+      <c r="E442" s="45"/>
+      <c r="F442" s="45"/>
+      <c r="G442" s="45"/>
+      <c r="H442" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I442" s="47"/>
+      <c r="J442" s="47"/>
       <c r="K442" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L442" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M442" s="52"/>
-      <c r="N442" s="52"/>
-      <c r="O442" s="52"/>
-      <c r="P442" s="52"/>
-      <c r="Q442" s="69"/>
+      <c r="L442" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M442" s="58"/>
+      <c r="N442" s="58"/>
+      <c r="O442" s="58"/>
+      <c r="P442" s="58"/>
+      <c r="Q442" s="40"/>
     </row>
     <row r="443" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
-      <c r="C443" s="43"/>
-      <c r="D443" s="43"/>
-      <c r="E443" s="43"/>
-      <c r="F443" s="43"/>
-      <c r="G443" s="43"/>
-      <c r="H443" s="45"/>
-      <c r="I443" s="45"/>
-      <c r="J443" s="45"/>
+      <c r="C443" s="45"/>
+      <c r="D443" s="45"/>
+      <c r="E443" s="45"/>
+      <c r="F443" s="45"/>
+      <c r="G443" s="45"/>
+      <c r="H443" s="47"/>
+      <c r="I443" s="47"/>
+      <c r="J443" s="47"/>
       <c r="K443" s="57"/>
-      <c r="L443" s="52"/>
-      <c r="M443" s="52"/>
-      <c r="N443" s="52"/>
-      <c r="O443" s="52"/>
-      <c r="P443" s="52"/>
-      <c r="Q443" s="69"/>
+      <c r="L443" s="58"/>
+      <c r="M443" s="58"/>
+      <c r="N443" s="58"/>
+      <c r="O443" s="58"/>
+      <c r="P443" s="58"/>
+      <c r="Q443" s="40"/>
     </row>
     <row r="444" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
-      <c r="C444" s="43"/>
-      <c r="D444" s="43"/>
-      <c r="E444" s="43"/>
-      <c r="F444" s="43"/>
-      <c r="G444" s="43"/>
-      <c r="H444" s="45"/>
-      <c r="I444" s="45"/>
-      <c r="J444" s="45"/>
+      <c r="C444" s="45"/>
+      <c r="D444" s="45"/>
+      <c r="E444" s="45"/>
+      <c r="F444" s="45"/>
+      <c r="G444" s="45"/>
+      <c r="H444" s="47"/>
+      <c r="I444" s="47"/>
+      <c r="J444" s="47"/>
       <c r="K444" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L444" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M444" s="58"/>
-      <c r="N444" s="58"/>
-      <c r="O444" s="58"/>
-      <c r="P444" s="58"/>
-      <c r="Q444" s="70"/>
+      <c r="L444" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M444" s="59"/>
+      <c r="N444" s="59"/>
+      <c r="O444" s="59"/>
+      <c r="P444" s="59"/>
+      <c r="Q444" s="41"/>
     </row>
     <row r="445" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
-      <c r="C445" s="43"/>
-      <c r="D445" s="43"/>
-      <c r="E445" s="43"/>
-      <c r="F445" s="43"/>
-      <c r="G445" s="43"/>
-      <c r="H445" s="45"/>
-      <c r="I445" s="45"/>
-      <c r="J445" s="45"/>
+      <c r="C445" s="45"/>
+      <c r="D445" s="45"/>
+      <c r="E445" s="45"/>
+      <c r="F445" s="45"/>
+      <c r="G445" s="45"/>
+      <c r="H445" s="47"/>
+      <c r="I445" s="47"/>
+      <c r="J445" s="47"/>
       <c r="K445" s="57"/>
-      <c r="L445" s="58"/>
-      <c r="M445" s="58"/>
-      <c r="N445" s="58"/>
-      <c r="O445" s="58"/>
-      <c r="P445" s="58"/>
-      <c r="Q445" s="70"/>
+      <c r="L445" s="59"/>
+      <c r="M445" s="59"/>
+      <c r="N445" s="59"/>
+      <c r="O445" s="59"/>
+      <c r="P445" s="59"/>
+      <c r="Q445" s="41"/>
     </row>
     <row r="446" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3"/>
-      <c r="C446" s="44"/>
-      <c r="D446" s="44"/>
-      <c r="E446" s="44"/>
-      <c r="F446" s="44"/>
-      <c r="G446" s="44"/>
-      <c r="H446" s="46"/>
-      <c r="I446" s="46"/>
-      <c r="J446" s="46"/>
-      <c r="L446" s="58"/>
-      <c r="M446" s="58"/>
-      <c r="N446" s="58"/>
-      <c r="O446" s="58"/>
-      <c r="P446" s="58"/>
-      <c r="Q446" s="70"/>
+      <c r="C446" s="46"/>
+      <c r="D446" s="46"/>
+      <c r="E446" s="46"/>
+      <c r="F446" s="46"/>
+      <c r="G446" s="46"/>
+      <c r="H446" s="48"/>
+      <c r="I446" s="48"/>
+      <c r="J446" s="48"/>
+      <c r="L446" s="59"/>
+      <c r="M446" s="59"/>
+      <c r="N446" s="59"/>
+      <c r="O446" s="59"/>
+      <c r="P446" s="59"/>
+      <c r="Q446" s="41"/>
     </row>
     <row r="447" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
-      <c r="C447" s="49" t="s">
+      <c r="C447" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D447" s="49"/>
-      <c r="E447" s="49"/>
-      <c r="F447" s="49"/>
-      <c r="G447" s="49"/>
-      <c r="H447" s="49"/>
-      <c r="I447" s="49"/>
-      <c r="J447" s="49"/>
+      <c r="D447" s="51"/>
+      <c r="E447" s="51"/>
+      <c r="F447" s="51"/>
+      <c r="G447" s="51"/>
+      <c r="H447" s="51"/>
+      <c r="I447" s="51"/>
+      <c r="J447" s="51"/>
       <c r="K447" s="21"/>
-      <c r="L447" s="58"/>
-      <c r="M447" s="58"/>
-      <c r="N447" s="58"/>
-      <c r="O447" s="58"/>
-      <c r="P447" s="58"/>
-      <c r="Q447" s="70"/>
+      <c r="L447" s="59"/>
+      <c r="M447" s="59"/>
+      <c r="N447" s="59"/>
+      <c r="O447" s="59"/>
+      <c r="P447" s="59"/>
+      <c r="Q447" s="41"/>
     </row>
     <row r="448" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
-      <c r="C448" s="50"/>
-      <c r="D448" s="50"/>
-      <c r="E448" s="50"/>
-      <c r="F448" s="50"/>
-      <c r="G448" s="50"/>
-      <c r="H448" s="50"/>
-      <c r="I448" s="50"/>
-      <c r="J448" s="50"/>
+      <c r="C448" s="52"/>
+      <c r="D448" s="52"/>
+      <c r="E448" s="52"/>
+      <c r="F448" s="52"/>
+      <c r="G448" s="52"/>
+      <c r="H448" s="52"/>
+      <c r="I448" s="52"/>
+      <c r="J448" s="52"/>
       <c r="K448" s="24"/>
-      <c r="L448" s="58"/>
-      <c r="M448" s="58"/>
-      <c r="N448" s="58"/>
-      <c r="O448" s="58"/>
-      <c r="P448" s="58"/>
-      <c r="Q448" s="70"/>
+      <c r="L448" s="59"/>
+      <c r="M448" s="59"/>
+      <c r="N448" s="59"/>
+      <c r="O448" s="59"/>
+      <c r="P448" s="59"/>
+      <c r="Q448" s="41"/>
     </row>
     <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
-      <c r="C449" s="50"/>
-      <c r="D449" s="50"/>
-      <c r="E449" s="50"/>
-      <c r="F449" s="50"/>
-      <c r="G449" s="50"/>
-      <c r="H449" s="50"/>
-      <c r="I449" s="50"/>
-      <c r="J449" s="50"/>
+      <c r="C449" s="52"/>
+      <c r="D449" s="52"/>
+      <c r="E449" s="52"/>
+      <c r="F449" s="52"/>
+      <c r="G449" s="52"/>
+      <c r="H449" s="52"/>
+      <c r="I449" s="52"/>
+      <c r="J449" s="52"/>
       <c r="K449" s="24"/>
-      <c r="L449" s="58"/>
-      <c r="M449" s="58"/>
-      <c r="N449" s="58"/>
-      <c r="O449" s="58"/>
-      <c r="P449" s="58"/>
-      <c r="Q449" s="70"/>
+      <c r="L449" s="59"/>
+      <c r="M449" s="59"/>
+      <c r="N449" s="59"/>
+      <c r="O449" s="59"/>
+      <c r="P449" s="59"/>
+      <c r="Q449" s="41"/>
     </row>
     <row r="450" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
-      <c r="C450" s="51"/>
-      <c r="D450" s="51"/>
-      <c r="E450" s="51"/>
-      <c r="F450" s="51"/>
-      <c r="G450" s="51"/>
-      <c r="H450" s="51"/>
-      <c r="I450" s="51"/>
-      <c r="J450" s="51"/>
+      <c r="C450" s="53"/>
+      <c r="D450" s="53"/>
+      <c r="E450" s="53"/>
+      <c r="F450" s="53"/>
+      <c r="G450" s="53"/>
+      <c r="H450" s="53"/>
+      <c r="I450" s="53"/>
+      <c r="J450" s="53"/>
       <c r="K450" s="25"/>
-      <c r="L450" s="58"/>
-      <c r="M450" s="58"/>
-      <c r="N450" s="58"/>
-      <c r="O450" s="58"/>
-      <c r="P450" s="58"/>
-      <c r="Q450" s="70"/>
+      <c r="L450" s="59"/>
+      <c r="M450" s="59"/>
+      <c r="N450" s="59"/>
+      <c r="O450" s="59"/>
+      <c r="P450" s="59"/>
+      <c r="Q450" s="41"/>
     </row>
     <row r="451" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C451" s="55"/>
       <c r="D451" s="55"/>
@@ -10972,13 +10966,13 @@
         <v>16</v>
       </c>
       <c r="N453" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O453" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P453" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q453" s="4"/>
     </row>
@@ -11699,8 +11693,8 @@
       <c r="A493" s="3"/>
       <c r="F493" s="22"/>
       <c r="G493" s="22"/>
-      <c r="H493" s="47"/>
-      <c r="I493" s="48"/>
+      <c r="H493" s="49"/>
+      <c r="I493" s="50"/>
       <c r="J493" s="22"/>
       <c r="K493" s="1"/>
       <c r="L493" s="2"/>
@@ -11709,7 +11703,7 @@
       <c r="O493" s="2"/>
       <c r="P493" s="2"/>
       <c r="Q493" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="494" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11717,7 +11711,7 @@
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
       <c r="H494" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I494" s="64"/>
       <c r="J494" s="39">
@@ -11725,7 +11719,7 @@
       </c>
       <c r="K494" s="3"/>
       <c r="Q494" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="495" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11737,11 +11731,11 @@
       <c r="F495" s="15"/>
       <c r="G495" s="15"/>
       <c r="H495" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I495" s="66"/>
       <c r="J495" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K495" s="13"/>
       <c r="L495" s="14"/>
@@ -11772,183 +11766,183 @@
     </row>
     <row r="497" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
-      <c r="C497" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D497" s="43"/>
-      <c r="E497" s="43"/>
-      <c r="F497" s="43"/>
-      <c r="G497" s="43"/>
-      <c r="H497" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I497" s="45"/>
-      <c r="J497" s="45"/>
+      <c r="C497" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D497" s="45"/>
+      <c r="E497" s="45"/>
+      <c r="F497" s="45"/>
+      <c r="G497" s="45"/>
+      <c r="H497" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I497" s="47"/>
+      <c r="J497" s="47"/>
       <c r="K497" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L497" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M497" s="52"/>
-      <c r="N497" s="52"/>
-      <c r="O497" s="52"/>
-      <c r="P497" s="52"/>
-      <c r="Q497" s="69"/>
+      <c r="L497" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M497" s="58"/>
+      <c r="N497" s="58"/>
+      <c r="O497" s="58"/>
+      <c r="P497" s="58"/>
+      <c r="Q497" s="40"/>
     </row>
     <row r="498" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
-      <c r="C498" s="43"/>
-      <c r="D498" s="43"/>
-      <c r="E498" s="43"/>
-      <c r="F498" s="43"/>
-      <c r="G498" s="43"/>
-      <c r="H498" s="45"/>
-      <c r="I498" s="45"/>
-      <c r="J498" s="45"/>
+      <c r="C498" s="45"/>
+      <c r="D498" s="45"/>
+      <c r="E498" s="45"/>
+      <c r="F498" s="45"/>
+      <c r="G498" s="45"/>
+      <c r="H498" s="47"/>
+      <c r="I498" s="47"/>
+      <c r="J498" s="47"/>
       <c r="K498" s="57"/>
-      <c r="L498" s="52"/>
-      <c r="M498" s="52"/>
-      <c r="N498" s="52"/>
-      <c r="O498" s="52"/>
-      <c r="P498" s="52"/>
-      <c r="Q498" s="69"/>
+      <c r="L498" s="58"/>
+      <c r="M498" s="58"/>
+      <c r="N498" s="58"/>
+      <c r="O498" s="58"/>
+      <c r="P498" s="58"/>
+      <c r="Q498" s="40"/>
     </row>
     <row r="499" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
-      <c r="C499" s="43"/>
-      <c r="D499" s="43"/>
-      <c r="E499" s="43"/>
-      <c r="F499" s="43"/>
-      <c r="G499" s="43"/>
-      <c r="H499" s="45"/>
-      <c r="I499" s="45"/>
-      <c r="J499" s="45"/>
+      <c r="C499" s="45"/>
+      <c r="D499" s="45"/>
+      <c r="E499" s="45"/>
+      <c r="F499" s="45"/>
+      <c r="G499" s="45"/>
+      <c r="H499" s="47"/>
+      <c r="I499" s="47"/>
+      <c r="J499" s="47"/>
       <c r="K499" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L499" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M499" s="58"/>
-      <c r="N499" s="58"/>
-      <c r="O499" s="58"/>
-      <c r="P499" s="58"/>
-      <c r="Q499" s="70"/>
+      <c r="L499" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M499" s="59"/>
+      <c r="N499" s="59"/>
+      <c r="O499" s="59"/>
+      <c r="P499" s="59"/>
+      <c r="Q499" s="41"/>
     </row>
     <row r="500" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
-      <c r="C500" s="43"/>
-      <c r="D500" s="43"/>
-      <c r="E500" s="43"/>
-      <c r="F500" s="43"/>
-      <c r="G500" s="43"/>
-      <c r="H500" s="45"/>
-      <c r="I500" s="45"/>
-      <c r="J500" s="45"/>
+      <c r="C500" s="45"/>
+      <c r="D500" s="45"/>
+      <c r="E500" s="45"/>
+      <c r="F500" s="45"/>
+      <c r="G500" s="45"/>
+      <c r="H500" s="47"/>
+      <c r="I500" s="47"/>
+      <c r="J500" s="47"/>
       <c r="K500" s="57"/>
-      <c r="L500" s="58"/>
-      <c r="M500" s="58"/>
-      <c r="N500" s="58"/>
-      <c r="O500" s="58"/>
-      <c r="P500" s="58"/>
-      <c r="Q500" s="70"/>
+      <c r="L500" s="59"/>
+      <c r="M500" s="59"/>
+      <c r="N500" s="59"/>
+      <c r="O500" s="59"/>
+      <c r="P500" s="59"/>
+      <c r="Q500" s="41"/>
     </row>
     <row r="501" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3"/>
-      <c r="C501" s="44"/>
-      <c r="D501" s="44"/>
-      <c r="E501" s="44"/>
-      <c r="F501" s="44"/>
-      <c r="G501" s="44"/>
-      <c r="H501" s="46"/>
-      <c r="I501" s="46"/>
-      <c r="J501" s="46"/>
-      <c r="L501" s="58"/>
-      <c r="M501" s="58"/>
-      <c r="N501" s="58"/>
-      <c r="O501" s="58"/>
-      <c r="P501" s="58"/>
-      <c r="Q501" s="70"/>
+      <c r="C501" s="46"/>
+      <c r="D501" s="46"/>
+      <c r="E501" s="46"/>
+      <c r="F501" s="46"/>
+      <c r="G501" s="46"/>
+      <c r="H501" s="48"/>
+      <c r="I501" s="48"/>
+      <c r="J501" s="48"/>
+      <c r="L501" s="59"/>
+      <c r="M501" s="59"/>
+      <c r="N501" s="59"/>
+      <c r="O501" s="59"/>
+      <c r="P501" s="59"/>
+      <c r="Q501" s="41"/>
     </row>
     <row r="502" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
-      <c r="C502" s="49" t="s">
+      <c r="C502" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D502" s="49"/>
-      <c r="E502" s="49"/>
-      <c r="F502" s="49"/>
-      <c r="G502" s="49"/>
-      <c r="H502" s="49"/>
-      <c r="I502" s="49"/>
-      <c r="J502" s="49"/>
+      <c r="D502" s="51"/>
+      <c r="E502" s="51"/>
+      <c r="F502" s="51"/>
+      <c r="G502" s="51"/>
+      <c r="H502" s="51"/>
+      <c r="I502" s="51"/>
+      <c r="J502" s="51"/>
       <c r="K502" s="21"/>
-      <c r="L502" s="58"/>
-      <c r="M502" s="58"/>
-      <c r="N502" s="58"/>
-      <c r="O502" s="58"/>
-      <c r="P502" s="58"/>
-      <c r="Q502" s="70"/>
+      <c r="L502" s="59"/>
+      <c r="M502" s="59"/>
+      <c r="N502" s="59"/>
+      <c r="O502" s="59"/>
+      <c r="P502" s="59"/>
+      <c r="Q502" s="41"/>
     </row>
     <row r="503" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
-      <c r="C503" s="50"/>
-      <c r="D503" s="50"/>
-      <c r="E503" s="50"/>
-      <c r="F503" s="50"/>
-      <c r="G503" s="50"/>
-      <c r="H503" s="50"/>
-      <c r="I503" s="50"/>
-      <c r="J503" s="50"/>
+      <c r="C503" s="52"/>
+      <c r="D503" s="52"/>
+      <c r="E503" s="52"/>
+      <c r="F503" s="52"/>
+      <c r="G503" s="52"/>
+      <c r="H503" s="52"/>
+      <c r="I503" s="52"/>
+      <c r="J503" s="52"/>
       <c r="K503" s="24"/>
-      <c r="L503" s="58"/>
-      <c r="M503" s="58"/>
-      <c r="N503" s="58"/>
-      <c r="O503" s="58"/>
-      <c r="P503" s="58"/>
-      <c r="Q503" s="70"/>
+      <c r="L503" s="59"/>
+      <c r="M503" s="59"/>
+      <c r="N503" s="59"/>
+      <c r="O503" s="59"/>
+      <c r="P503" s="59"/>
+      <c r="Q503" s="41"/>
     </row>
     <row r="504" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
-      <c r="C504" s="50"/>
-      <c r="D504" s="50"/>
-      <c r="E504" s="50"/>
-      <c r="F504" s="50"/>
-      <c r="G504" s="50"/>
-      <c r="H504" s="50"/>
-      <c r="I504" s="50"/>
-      <c r="J504" s="50"/>
+      <c r="C504" s="52"/>
+      <c r="D504" s="52"/>
+      <c r="E504" s="52"/>
+      <c r="F504" s="52"/>
+      <c r="G504" s="52"/>
+      <c r="H504" s="52"/>
+      <c r="I504" s="52"/>
+      <c r="J504" s="52"/>
       <c r="K504" s="24"/>
-      <c r="L504" s="58"/>
-      <c r="M504" s="58"/>
-      <c r="N504" s="58"/>
-      <c r="O504" s="58"/>
-      <c r="P504" s="58"/>
-      <c r="Q504" s="70"/>
+      <c r="L504" s="59"/>
+      <c r="M504" s="59"/>
+      <c r="N504" s="59"/>
+      <c r="O504" s="59"/>
+      <c r="P504" s="59"/>
+      <c r="Q504" s="41"/>
     </row>
     <row r="505" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
-      <c r="C505" s="51"/>
-      <c r="D505" s="51"/>
-      <c r="E505" s="51"/>
-      <c r="F505" s="51"/>
-      <c r="G505" s="51"/>
-      <c r="H505" s="51"/>
-      <c r="I505" s="51"/>
-      <c r="J505" s="51"/>
+      <c r="C505" s="53"/>
+      <c r="D505" s="53"/>
+      <c r="E505" s="53"/>
+      <c r="F505" s="53"/>
+      <c r="G505" s="53"/>
+      <c r="H505" s="53"/>
+      <c r="I505" s="53"/>
+      <c r="J505" s="53"/>
       <c r="K505" s="25"/>
-      <c r="L505" s="58"/>
-      <c r="M505" s="58"/>
-      <c r="N505" s="58"/>
-      <c r="O505" s="58"/>
-      <c r="P505" s="58"/>
-      <c r="Q505" s="70"/>
+      <c r="L505" s="59"/>
+      <c r="M505" s="59"/>
+      <c r="N505" s="59"/>
+      <c r="O505" s="59"/>
+      <c r="P505" s="59"/>
+      <c r="Q505" s="41"/>
     </row>
     <row r="506" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C506" s="55"/>
       <c r="D506" s="55"/>
@@ -12010,13 +12004,13 @@
         <v>16</v>
       </c>
       <c r="N508" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O508" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P508" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q508" s="4"/>
     </row>
@@ -12737,8 +12731,8 @@
       <c r="A548" s="3"/>
       <c r="F548" s="22"/>
       <c r="G548" s="22"/>
-      <c r="H548" s="47"/>
-      <c r="I548" s="48"/>
+      <c r="H548" s="49"/>
+      <c r="I548" s="50"/>
       <c r="J548" s="22"/>
       <c r="K548" s="1"/>
       <c r="L548" s="2"/>
@@ -12747,7 +12741,7 @@
       <c r="O548" s="2"/>
       <c r="P548" s="2"/>
       <c r="Q548" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="549" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12755,7 +12749,7 @@
       <c r="F549" s="16"/>
       <c r="G549" s="16"/>
       <c r="H549" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I549" s="64"/>
       <c r="J549" s="39">
@@ -12763,7 +12757,7 @@
       </c>
       <c r="K549" s="3"/>
       <c r="Q549" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="550" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12775,11 +12769,11 @@
       <c r="F550" s="15"/>
       <c r="G550" s="15"/>
       <c r="H550" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I550" s="66"/>
       <c r="J550" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K550" s="13"/>
       <c r="L550" s="14"/>
@@ -12810,183 +12804,183 @@
     </row>
     <row r="552" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
-      <c r="C552" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D552" s="43"/>
-      <c r="E552" s="43"/>
-      <c r="F552" s="43"/>
-      <c r="G552" s="43"/>
-      <c r="H552" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I552" s="45"/>
-      <c r="J552" s="45"/>
+      <c r="C552" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D552" s="45"/>
+      <c r="E552" s="45"/>
+      <c r="F552" s="45"/>
+      <c r="G552" s="45"/>
+      <c r="H552" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I552" s="47"/>
+      <c r="J552" s="47"/>
       <c r="K552" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L552" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M552" s="52"/>
-      <c r="N552" s="52"/>
-      <c r="O552" s="52"/>
-      <c r="P552" s="52"/>
-      <c r="Q552" s="69"/>
+      <c r="L552" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M552" s="58"/>
+      <c r="N552" s="58"/>
+      <c r="O552" s="58"/>
+      <c r="P552" s="58"/>
+      <c r="Q552" s="40"/>
     </row>
     <row r="553" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
-      <c r="C553" s="43"/>
-      <c r="D553" s="43"/>
-      <c r="E553" s="43"/>
-      <c r="F553" s="43"/>
-      <c r="G553" s="43"/>
-      <c r="H553" s="45"/>
-      <c r="I553" s="45"/>
-      <c r="J553" s="45"/>
+      <c r="C553" s="45"/>
+      <c r="D553" s="45"/>
+      <c r="E553" s="45"/>
+      <c r="F553" s="45"/>
+      <c r="G553" s="45"/>
+      <c r="H553" s="47"/>
+      <c r="I553" s="47"/>
+      <c r="J553" s="47"/>
       <c r="K553" s="57"/>
-      <c r="L553" s="52"/>
-      <c r="M553" s="52"/>
-      <c r="N553" s="52"/>
-      <c r="O553" s="52"/>
-      <c r="P553" s="52"/>
-      <c r="Q553" s="69"/>
+      <c r="L553" s="58"/>
+      <c r="M553" s="58"/>
+      <c r="N553" s="58"/>
+      <c r="O553" s="58"/>
+      <c r="P553" s="58"/>
+      <c r="Q553" s="40"/>
     </row>
     <row r="554" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
-      <c r="C554" s="43"/>
-      <c r="D554" s="43"/>
-      <c r="E554" s="43"/>
-      <c r="F554" s="43"/>
-      <c r="G554" s="43"/>
-      <c r="H554" s="45"/>
-      <c r="I554" s="45"/>
-      <c r="J554" s="45"/>
+      <c r="C554" s="45"/>
+      <c r="D554" s="45"/>
+      <c r="E554" s="45"/>
+      <c r="F554" s="45"/>
+      <c r="G554" s="45"/>
+      <c r="H554" s="47"/>
+      <c r="I554" s="47"/>
+      <c r="J554" s="47"/>
       <c r="K554" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L554" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M554" s="58"/>
-      <c r="N554" s="58"/>
-      <c r="O554" s="58"/>
-      <c r="P554" s="58"/>
-      <c r="Q554" s="70"/>
+      <c r="L554" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M554" s="59"/>
+      <c r="N554" s="59"/>
+      <c r="O554" s="59"/>
+      <c r="P554" s="59"/>
+      <c r="Q554" s="41"/>
     </row>
     <row r="555" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
-      <c r="C555" s="43"/>
-      <c r="D555" s="43"/>
-      <c r="E555" s="43"/>
-      <c r="F555" s="43"/>
-      <c r="G555" s="43"/>
-      <c r="H555" s="45"/>
-      <c r="I555" s="45"/>
-      <c r="J555" s="45"/>
+      <c r="C555" s="45"/>
+      <c r="D555" s="45"/>
+      <c r="E555" s="45"/>
+      <c r="F555" s="45"/>
+      <c r="G555" s="45"/>
+      <c r="H555" s="47"/>
+      <c r="I555" s="47"/>
+      <c r="J555" s="47"/>
       <c r="K555" s="57"/>
-      <c r="L555" s="58"/>
-      <c r="M555" s="58"/>
-      <c r="N555" s="58"/>
-      <c r="O555" s="58"/>
-      <c r="P555" s="58"/>
-      <c r="Q555" s="70"/>
+      <c r="L555" s="59"/>
+      <c r="M555" s="59"/>
+      <c r="N555" s="59"/>
+      <c r="O555" s="59"/>
+      <c r="P555" s="59"/>
+      <c r="Q555" s="41"/>
     </row>
     <row r="556" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="3"/>
-      <c r="C556" s="44"/>
-      <c r="D556" s="44"/>
-      <c r="E556" s="44"/>
-      <c r="F556" s="44"/>
-      <c r="G556" s="44"/>
-      <c r="H556" s="46"/>
-      <c r="I556" s="46"/>
-      <c r="J556" s="46"/>
-      <c r="L556" s="58"/>
-      <c r="M556" s="58"/>
-      <c r="N556" s="58"/>
-      <c r="O556" s="58"/>
-      <c r="P556" s="58"/>
-      <c r="Q556" s="70"/>
+      <c r="C556" s="46"/>
+      <c r="D556" s="46"/>
+      <c r="E556" s="46"/>
+      <c r="F556" s="46"/>
+      <c r="G556" s="46"/>
+      <c r="H556" s="48"/>
+      <c r="I556" s="48"/>
+      <c r="J556" s="48"/>
+      <c r="L556" s="59"/>
+      <c r="M556" s="59"/>
+      <c r="N556" s="59"/>
+      <c r="O556" s="59"/>
+      <c r="P556" s="59"/>
+      <c r="Q556" s="41"/>
     </row>
     <row r="557" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
-      <c r="C557" s="49" t="s">
+      <c r="C557" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D557" s="49"/>
-      <c r="E557" s="49"/>
-      <c r="F557" s="49"/>
-      <c r="G557" s="49"/>
-      <c r="H557" s="49"/>
-      <c r="I557" s="49"/>
-      <c r="J557" s="49"/>
+      <c r="D557" s="51"/>
+      <c r="E557" s="51"/>
+      <c r="F557" s="51"/>
+      <c r="G557" s="51"/>
+      <c r="H557" s="51"/>
+      <c r="I557" s="51"/>
+      <c r="J557" s="51"/>
       <c r="K557" s="21"/>
-      <c r="L557" s="58"/>
-      <c r="M557" s="58"/>
-      <c r="N557" s="58"/>
-      <c r="O557" s="58"/>
-      <c r="P557" s="58"/>
-      <c r="Q557" s="70"/>
+      <c r="L557" s="59"/>
+      <c r="M557" s="59"/>
+      <c r="N557" s="59"/>
+      <c r="O557" s="59"/>
+      <c r="P557" s="59"/>
+      <c r="Q557" s="41"/>
     </row>
     <row r="558" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
-      <c r="C558" s="50"/>
-      <c r="D558" s="50"/>
-      <c r="E558" s="50"/>
-      <c r="F558" s="50"/>
-      <c r="G558" s="50"/>
-      <c r="H558" s="50"/>
-      <c r="I558" s="50"/>
-      <c r="J558" s="50"/>
+      <c r="C558" s="52"/>
+      <c r="D558" s="52"/>
+      <c r="E558" s="52"/>
+      <c r="F558" s="52"/>
+      <c r="G558" s="52"/>
+      <c r="H558" s="52"/>
+      <c r="I558" s="52"/>
+      <c r="J558" s="52"/>
       <c r="K558" s="24"/>
-      <c r="L558" s="58"/>
-      <c r="M558" s="58"/>
-      <c r="N558" s="58"/>
-      <c r="O558" s="58"/>
-      <c r="P558" s="58"/>
-      <c r="Q558" s="70"/>
+      <c r="L558" s="59"/>
+      <c r="M558" s="59"/>
+      <c r="N558" s="59"/>
+      <c r="O558" s="59"/>
+      <c r="P558" s="59"/>
+      <c r="Q558" s="41"/>
     </row>
     <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
-      <c r="C559" s="50"/>
-      <c r="D559" s="50"/>
-      <c r="E559" s="50"/>
-      <c r="F559" s="50"/>
-      <c r="G559" s="50"/>
-      <c r="H559" s="50"/>
-      <c r="I559" s="50"/>
-      <c r="J559" s="50"/>
+      <c r="C559" s="52"/>
+      <c r="D559" s="52"/>
+      <c r="E559" s="52"/>
+      <c r="F559" s="52"/>
+      <c r="G559" s="52"/>
+      <c r="H559" s="52"/>
+      <c r="I559" s="52"/>
+      <c r="J559" s="52"/>
       <c r="K559" s="24"/>
-      <c r="L559" s="58"/>
-      <c r="M559" s="58"/>
-      <c r="N559" s="58"/>
-      <c r="O559" s="58"/>
-      <c r="P559" s="58"/>
-      <c r="Q559" s="70"/>
+      <c r="L559" s="59"/>
+      <c r="M559" s="59"/>
+      <c r="N559" s="59"/>
+      <c r="O559" s="59"/>
+      <c r="P559" s="59"/>
+      <c r="Q559" s="41"/>
     </row>
     <row r="560" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
-      <c r="C560" s="51"/>
-      <c r="D560" s="51"/>
-      <c r="E560" s="51"/>
-      <c r="F560" s="51"/>
-      <c r="G560" s="51"/>
-      <c r="H560" s="51"/>
-      <c r="I560" s="51"/>
-      <c r="J560" s="51"/>
+      <c r="C560" s="53"/>
+      <c r="D560" s="53"/>
+      <c r="E560" s="53"/>
+      <c r="F560" s="53"/>
+      <c r="G560" s="53"/>
+      <c r="H560" s="53"/>
+      <c r="I560" s="53"/>
+      <c r="J560" s="53"/>
       <c r="K560" s="25"/>
-      <c r="L560" s="58"/>
-      <c r="M560" s="58"/>
-      <c r="N560" s="58"/>
-      <c r="O560" s="58"/>
-      <c r="P560" s="58"/>
-      <c r="Q560" s="70"/>
+      <c r="L560" s="59"/>
+      <c r="M560" s="59"/>
+      <c r="N560" s="59"/>
+      <c r="O560" s="59"/>
+      <c r="P560" s="59"/>
+      <c r="Q560" s="41"/>
     </row>
     <row r="561" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C561" s="55"/>
       <c r="D561" s="55"/>
@@ -13048,13 +13042,13 @@
         <v>16</v>
       </c>
       <c r="N563" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O563" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P563" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q563" s="4"/>
     </row>
@@ -13775,8 +13769,8 @@
       <c r="A603" s="3"/>
       <c r="F603" s="22"/>
       <c r="G603" s="22"/>
-      <c r="H603" s="47"/>
-      <c r="I603" s="48"/>
+      <c r="H603" s="49"/>
+      <c r="I603" s="50"/>
       <c r="J603" s="22"/>
       <c r="K603" s="1"/>
       <c r="L603" s="2"/>
@@ -13785,7 +13779,7 @@
       <c r="O603" s="2"/>
       <c r="P603" s="2"/>
       <c r="Q603" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="604" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13793,7 +13787,7 @@
       <c r="F604" s="16"/>
       <c r="G604" s="16"/>
       <c r="H604" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I604" s="64"/>
       <c r="J604" s="39">
@@ -13801,7 +13795,7 @@
       </c>
       <c r="K604" s="3"/>
       <c r="Q604" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="605" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13813,11 +13807,11 @@
       <c r="F605" s="15"/>
       <c r="G605" s="15"/>
       <c r="H605" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I605" s="66"/>
       <c r="J605" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K605" s="13"/>
       <c r="L605" s="14"/>
@@ -13848,183 +13842,183 @@
     </row>
     <row r="607" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
-      <c r="C607" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D607" s="43"/>
-      <c r="E607" s="43"/>
-      <c r="F607" s="43"/>
-      <c r="G607" s="43"/>
-      <c r="H607" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I607" s="45"/>
-      <c r="J607" s="45"/>
+      <c r="C607" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D607" s="45"/>
+      <c r="E607" s="45"/>
+      <c r="F607" s="45"/>
+      <c r="G607" s="45"/>
+      <c r="H607" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I607" s="47"/>
+      <c r="J607" s="47"/>
       <c r="K607" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L607" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M607" s="52"/>
-      <c r="N607" s="52"/>
-      <c r="O607" s="52"/>
-      <c r="P607" s="52"/>
-      <c r="Q607" s="69"/>
+      <c r="L607" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M607" s="58"/>
+      <c r="N607" s="58"/>
+      <c r="O607" s="58"/>
+      <c r="P607" s="58"/>
+      <c r="Q607" s="40"/>
     </row>
     <row r="608" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
-      <c r="C608" s="43"/>
-      <c r="D608" s="43"/>
-      <c r="E608" s="43"/>
-      <c r="F608" s="43"/>
-      <c r="G608" s="43"/>
-      <c r="H608" s="45"/>
-      <c r="I608" s="45"/>
-      <c r="J608" s="45"/>
+      <c r="C608" s="45"/>
+      <c r="D608" s="45"/>
+      <c r="E608" s="45"/>
+      <c r="F608" s="45"/>
+      <c r="G608" s="45"/>
+      <c r="H608" s="47"/>
+      <c r="I608" s="47"/>
+      <c r="J608" s="47"/>
       <c r="K608" s="57"/>
-      <c r="L608" s="52"/>
-      <c r="M608" s="52"/>
-      <c r="N608" s="52"/>
-      <c r="O608" s="52"/>
-      <c r="P608" s="52"/>
-      <c r="Q608" s="69"/>
+      <c r="L608" s="58"/>
+      <c r="M608" s="58"/>
+      <c r="N608" s="58"/>
+      <c r="O608" s="58"/>
+      <c r="P608" s="58"/>
+      <c r="Q608" s="40"/>
     </row>
     <row r="609" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
-      <c r="C609" s="43"/>
-      <c r="D609" s="43"/>
-      <c r="E609" s="43"/>
-      <c r="F609" s="43"/>
-      <c r="G609" s="43"/>
-      <c r="H609" s="45"/>
-      <c r="I609" s="45"/>
-      <c r="J609" s="45"/>
+      <c r="C609" s="45"/>
+      <c r="D609" s="45"/>
+      <c r="E609" s="45"/>
+      <c r="F609" s="45"/>
+      <c r="G609" s="45"/>
+      <c r="H609" s="47"/>
+      <c r="I609" s="47"/>
+      <c r="J609" s="47"/>
       <c r="K609" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L609" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M609" s="58"/>
-      <c r="N609" s="58"/>
-      <c r="O609" s="58"/>
-      <c r="P609" s="58"/>
-      <c r="Q609" s="70"/>
+      <c r="L609" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M609" s="59"/>
+      <c r="N609" s="59"/>
+      <c r="O609" s="59"/>
+      <c r="P609" s="59"/>
+      <c r="Q609" s="41"/>
     </row>
     <row r="610" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
-      <c r="C610" s="43"/>
-      <c r="D610" s="43"/>
-      <c r="E610" s="43"/>
-      <c r="F610" s="43"/>
-      <c r="G610" s="43"/>
-      <c r="H610" s="45"/>
-      <c r="I610" s="45"/>
-      <c r="J610" s="45"/>
+      <c r="C610" s="45"/>
+      <c r="D610" s="45"/>
+      <c r="E610" s="45"/>
+      <c r="F610" s="45"/>
+      <c r="G610" s="45"/>
+      <c r="H610" s="47"/>
+      <c r="I610" s="47"/>
+      <c r="J610" s="47"/>
       <c r="K610" s="57"/>
-      <c r="L610" s="58"/>
-      <c r="M610" s="58"/>
-      <c r="N610" s="58"/>
-      <c r="O610" s="58"/>
-      <c r="P610" s="58"/>
-      <c r="Q610" s="70"/>
+      <c r="L610" s="59"/>
+      <c r="M610" s="59"/>
+      <c r="N610" s="59"/>
+      <c r="O610" s="59"/>
+      <c r="P610" s="59"/>
+      <c r="Q610" s="41"/>
     </row>
     <row r="611" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="3"/>
-      <c r="C611" s="44"/>
-      <c r="D611" s="44"/>
-      <c r="E611" s="44"/>
-      <c r="F611" s="44"/>
-      <c r="G611" s="44"/>
-      <c r="H611" s="46"/>
-      <c r="I611" s="46"/>
-      <c r="J611" s="46"/>
-      <c r="L611" s="58"/>
-      <c r="M611" s="58"/>
-      <c r="N611" s="58"/>
-      <c r="O611" s="58"/>
-      <c r="P611" s="58"/>
-      <c r="Q611" s="70"/>
+      <c r="C611" s="46"/>
+      <c r="D611" s="46"/>
+      <c r="E611" s="46"/>
+      <c r="F611" s="46"/>
+      <c r="G611" s="46"/>
+      <c r="H611" s="48"/>
+      <c r="I611" s="48"/>
+      <c r="J611" s="48"/>
+      <c r="L611" s="59"/>
+      <c r="M611" s="59"/>
+      <c r="N611" s="59"/>
+      <c r="O611" s="59"/>
+      <c r="P611" s="59"/>
+      <c r="Q611" s="41"/>
     </row>
     <row r="612" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
-      <c r="C612" s="49" t="s">
+      <c r="C612" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D612" s="49"/>
-      <c r="E612" s="49"/>
-      <c r="F612" s="49"/>
-      <c r="G612" s="49"/>
-      <c r="H612" s="49"/>
-      <c r="I612" s="49"/>
-      <c r="J612" s="49"/>
+      <c r="D612" s="51"/>
+      <c r="E612" s="51"/>
+      <c r="F612" s="51"/>
+      <c r="G612" s="51"/>
+      <c r="H612" s="51"/>
+      <c r="I612" s="51"/>
+      <c r="J612" s="51"/>
       <c r="K612" s="21"/>
-      <c r="L612" s="58"/>
-      <c r="M612" s="58"/>
-      <c r="N612" s="58"/>
-      <c r="O612" s="58"/>
-      <c r="P612" s="58"/>
-      <c r="Q612" s="70"/>
+      <c r="L612" s="59"/>
+      <c r="M612" s="59"/>
+      <c r="N612" s="59"/>
+      <c r="O612" s="59"/>
+      <c r="P612" s="59"/>
+      <c r="Q612" s="41"/>
     </row>
     <row r="613" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
-      <c r="C613" s="50"/>
-      <c r="D613" s="50"/>
-      <c r="E613" s="50"/>
-      <c r="F613" s="50"/>
-      <c r="G613" s="50"/>
-      <c r="H613" s="50"/>
-      <c r="I613" s="50"/>
-      <c r="J613" s="50"/>
+      <c r="C613" s="52"/>
+      <c r="D613" s="52"/>
+      <c r="E613" s="52"/>
+      <c r="F613" s="52"/>
+      <c r="G613" s="52"/>
+      <c r="H613" s="52"/>
+      <c r="I613" s="52"/>
+      <c r="J613" s="52"/>
       <c r="K613" s="24"/>
-      <c r="L613" s="58"/>
-      <c r="M613" s="58"/>
-      <c r="N613" s="58"/>
-      <c r="O613" s="58"/>
-      <c r="P613" s="58"/>
-      <c r="Q613" s="70"/>
+      <c r="L613" s="59"/>
+      <c r="M613" s="59"/>
+      <c r="N613" s="59"/>
+      <c r="O613" s="59"/>
+      <c r="P613" s="59"/>
+      <c r="Q613" s="41"/>
     </row>
     <row r="614" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
-      <c r="C614" s="50"/>
-      <c r="D614" s="50"/>
-      <c r="E614" s="50"/>
-      <c r="F614" s="50"/>
-      <c r="G614" s="50"/>
-      <c r="H614" s="50"/>
-      <c r="I614" s="50"/>
-      <c r="J614" s="50"/>
+      <c r="C614" s="52"/>
+      <c r="D614" s="52"/>
+      <c r="E614" s="52"/>
+      <c r="F614" s="52"/>
+      <c r="G614" s="52"/>
+      <c r="H614" s="52"/>
+      <c r="I614" s="52"/>
+      <c r="J614" s="52"/>
       <c r="K614" s="24"/>
-      <c r="L614" s="58"/>
-      <c r="M614" s="58"/>
-      <c r="N614" s="58"/>
-      <c r="O614" s="58"/>
-      <c r="P614" s="58"/>
-      <c r="Q614" s="70"/>
+      <c r="L614" s="59"/>
+      <c r="M614" s="59"/>
+      <c r="N614" s="59"/>
+      <c r="O614" s="59"/>
+      <c r="P614" s="59"/>
+      <c r="Q614" s="41"/>
     </row>
     <row r="615" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
-      <c r="C615" s="51"/>
-      <c r="D615" s="51"/>
-      <c r="E615" s="51"/>
-      <c r="F615" s="51"/>
-      <c r="G615" s="51"/>
-      <c r="H615" s="51"/>
-      <c r="I615" s="51"/>
-      <c r="J615" s="51"/>
+      <c r="C615" s="53"/>
+      <c r="D615" s="53"/>
+      <c r="E615" s="53"/>
+      <c r="F615" s="53"/>
+      <c r="G615" s="53"/>
+      <c r="H615" s="53"/>
+      <c r="I615" s="53"/>
+      <c r="J615" s="53"/>
       <c r="K615" s="25"/>
-      <c r="L615" s="58"/>
-      <c r="M615" s="58"/>
-      <c r="N615" s="58"/>
-      <c r="O615" s="58"/>
-      <c r="P615" s="58"/>
-      <c r="Q615" s="70"/>
+      <c r="L615" s="59"/>
+      <c r="M615" s="59"/>
+      <c r="N615" s="59"/>
+      <c r="O615" s="59"/>
+      <c r="P615" s="59"/>
+      <c r="Q615" s="41"/>
     </row>
     <row r="616" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C616" s="55"/>
       <c r="D616" s="55"/>
@@ -14086,13 +14080,13 @@
         <v>16</v>
       </c>
       <c r="N618" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O618" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P618" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q618" s="4"/>
     </row>
@@ -14813,8 +14807,8 @@
       <c r="A658" s="3"/>
       <c r="F658" s="22"/>
       <c r="G658" s="22"/>
-      <c r="H658" s="47"/>
-      <c r="I658" s="48"/>
+      <c r="H658" s="49"/>
+      <c r="I658" s="50"/>
       <c r="J658" s="22"/>
       <c r="K658" s="1"/>
       <c r="L658" s="2"/>
@@ -14823,7 +14817,7 @@
       <c r="O658" s="2"/>
       <c r="P658" s="2"/>
       <c r="Q658" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="659" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14831,7 +14825,7 @@
       <c r="F659" s="16"/>
       <c r="G659" s="16"/>
       <c r="H659" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I659" s="64"/>
       <c r="J659" s="39">
@@ -14839,7 +14833,7 @@
       </c>
       <c r="K659" s="3"/>
       <c r="Q659" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="660" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14851,11 +14845,11 @@
       <c r="F660" s="15"/>
       <c r="G660" s="15"/>
       <c r="H660" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I660" s="66"/>
       <c r="J660" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K660" s="13"/>
       <c r="L660" s="14"/>
@@ -14886,183 +14880,183 @@
     </row>
     <row r="662" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
-      <c r="C662" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D662" s="43"/>
-      <c r="E662" s="43"/>
-      <c r="F662" s="43"/>
-      <c r="G662" s="43"/>
-      <c r="H662" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I662" s="45"/>
-      <c r="J662" s="45"/>
+      <c r="C662" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D662" s="45"/>
+      <c r="E662" s="45"/>
+      <c r="F662" s="45"/>
+      <c r="G662" s="45"/>
+      <c r="H662" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I662" s="47"/>
+      <c r="J662" s="47"/>
       <c r="K662" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L662" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M662" s="52"/>
-      <c r="N662" s="52"/>
-      <c r="O662" s="52"/>
-      <c r="P662" s="52"/>
-      <c r="Q662" s="69"/>
+      <c r="L662" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M662" s="58"/>
+      <c r="N662" s="58"/>
+      <c r="O662" s="58"/>
+      <c r="P662" s="58"/>
+      <c r="Q662" s="40"/>
     </row>
     <row r="663" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
-      <c r="C663" s="43"/>
-      <c r="D663" s="43"/>
-      <c r="E663" s="43"/>
-      <c r="F663" s="43"/>
-      <c r="G663" s="43"/>
-      <c r="H663" s="45"/>
-      <c r="I663" s="45"/>
-      <c r="J663" s="45"/>
+      <c r="C663" s="45"/>
+      <c r="D663" s="45"/>
+      <c r="E663" s="45"/>
+      <c r="F663" s="45"/>
+      <c r="G663" s="45"/>
+      <c r="H663" s="47"/>
+      <c r="I663" s="47"/>
+      <c r="J663" s="47"/>
       <c r="K663" s="57"/>
-      <c r="L663" s="52"/>
-      <c r="M663" s="52"/>
-      <c r="N663" s="52"/>
-      <c r="O663" s="52"/>
-      <c r="P663" s="52"/>
-      <c r="Q663" s="69"/>
+      <c r="L663" s="58"/>
+      <c r="M663" s="58"/>
+      <c r="N663" s="58"/>
+      <c r="O663" s="58"/>
+      <c r="P663" s="58"/>
+      <c r="Q663" s="40"/>
     </row>
     <row r="664" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
-      <c r="C664" s="43"/>
-      <c r="D664" s="43"/>
-      <c r="E664" s="43"/>
-      <c r="F664" s="43"/>
-      <c r="G664" s="43"/>
-      <c r="H664" s="45"/>
-      <c r="I664" s="45"/>
-      <c r="J664" s="45"/>
+      <c r="C664" s="45"/>
+      <c r="D664" s="45"/>
+      <c r="E664" s="45"/>
+      <c r="F664" s="45"/>
+      <c r="G664" s="45"/>
+      <c r="H664" s="47"/>
+      <c r="I664" s="47"/>
+      <c r="J664" s="47"/>
       <c r="K664" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L664" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M664" s="58"/>
-      <c r="N664" s="58"/>
-      <c r="O664" s="58"/>
-      <c r="P664" s="58"/>
-      <c r="Q664" s="70"/>
+      <c r="L664" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M664" s="59"/>
+      <c r="N664" s="59"/>
+      <c r="O664" s="59"/>
+      <c r="P664" s="59"/>
+      <c r="Q664" s="41"/>
     </row>
     <row r="665" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
-      <c r="C665" s="43"/>
-      <c r="D665" s="43"/>
-      <c r="E665" s="43"/>
-      <c r="F665" s="43"/>
-      <c r="G665" s="43"/>
-      <c r="H665" s="45"/>
-      <c r="I665" s="45"/>
-      <c r="J665" s="45"/>
+      <c r="C665" s="45"/>
+      <c r="D665" s="45"/>
+      <c r="E665" s="45"/>
+      <c r="F665" s="45"/>
+      <c r="G665" s="45"/>
+      <c r="H665" s="47"/>
+      <c r="I665" s="47"/>
+      <c r="J665" s="47"/>
       <c r="K665" s="57"/>
-      <c r="L665" s="58"/>
-      <c r="M665" s="58"/>
-      <c r="N665" s="58"/>
-      <c r="O665" s="58"/>
-      <c r="P665" s="58"/>
-      <c r="Q665" s="70"/>
+      <c r="L665" s="59"/>
+      <c r="M665" s="59"/>
+      <c r="N665" s="59"/>
+      <c r="O665" s="59"/>
+      <c r="P665" s="59"/>
+      <c r="Q665" s="41"/>
     </row>
     <row r="666" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="3"/>
-      <c r="C666" s="44"/>
-      <c r="D666" s="44"/>
-      <c r="E666" s="44"/>
-      <c r="F666" s="44"/>
-      <c r="G666" s="44"/>
-      <c r="H666" s="46"/>
-      <c r="I666" s="46"/>
-      <c r="J666" s="46"/>
-      <c r="L666" s="58"/>
-      <c r="M666" s="58"/>
-      <c r="N666" s="58"/>
-      <c r="O666" s="58"/>
-      <c r="P666" s="58"/>
-      <c r="Q666" s="70"/>
+      <c r="C666" s="46"/>
+      <c r="D666" s="46"/>
+      <c r="E666" s="46"/>
+      <c r="F666" s="46"/>
+      <c r="G666" s="46"/>
+      <c r="H666" s="48"/>
+      <c r="I666" s="48"/>
+      <c r="J666" s="48"/>
+      <c r="L666" s="59"/>
+      <c r="M666" s="59"/>
+      <c r="N666" s="59"/>
+      <c r="O666" s="59"/>
+      <c r="P666" s="59"/>
+      <c r="Q666" s="41"/>
     </row>
     <row r="667" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
-      <c r="C667" s="49" t="s">
+      <c r="C667" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D667" s="49"/>
-      <c r="E667" s="49"/>
-      <c r="F667" s="49"/>
-      <c r="G667" s="49"/>
-      <c r="H667" s="49"/>
-      <c r="I667" s="49"/>
-      <c r="J667" s="49"/>
+      <c r="D667" s="51"/>
+      <c r="E667" s="51"/>
+      <c r="F667" s="51"/>
+      <c r="G667" s="51"/>
+      <c r="H667" s="51"/>
+      <c r="I667" s="51"/>
+      <c r="J667" s="51"/>
       <c r="K667" s="21"/>
-      <c r="L667" s="58"/>
-      <c r="M667" s="58"/>
-      <c r="N667" s="58"/>
-      <c r="O667" s="58"/>
-      <c r="P667" s="58"/>
-      <c r="Q667" s="70"/>
+      <c r="L667" s="59"/>
+      <c r="M667" s="59"/>
+      <c r="N667" s="59"/>
+      <c r="O667" s="59"/>
+      <c r="P667" s="59"/>
+      <c r="Q667" s="41"/>
     </row>
     <row r="668" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
-      <c r="C668" s="50"/>
-      <c r="D668" s="50"/>
-      <c r="E668" s="50"/>
-      <c r="F668" s="50"/>
-      <c r="G668" s="50"/>
-      <c r="H668" s="50"/>
-      <c r="I668" s="50"/>
-      <c r="J668" s="50"/>
+      <c r="C668" s="52"/>
+      <c r="D668" s="52"/>
+      <c r="E668" s="52"/>
+      <c r="F668" s="52"/>
+      <c r="G668" s="52"/>
+      <c r="H668" s="52"/>
+      <c r="I668" s="52"/>
+      <c r="J668" s="52"/>
       <c r="K668" s="24"/>
-      <c r="L668" s="58"/>
-      <c r="M668" s="58"/>
-      <c r="N668" s="58"/>
-      <c r="O668" s="58"/>
-      <c r="P668" s="58"/>
-      <c r="Q668" s="70"/>
+      <c r="L668" s="59"/>
+      <c r="M668" s="59"/>
+      <c r="N668" s="59"/>
+      <c r="O668" s="59"/>
+      <c r="P668" s="59"/>
+      <c r="Q668" s="41"/>
     </row>
     <row r="669" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
-      <c r="C669" s="50"/>
-      <c r="D669" s="50"/>
-      <c r="E669" s="50"/>
-      <c r="F669" s="50"/>
-      <c r="G669" s="50"/>
-      <c r="H669" s="50"/>
-      <c r="I669" s="50"/>
-      <c r="J669" s="50"/>
+      <c r="C669" s="52"/>
+      <c r="D669" s="52"/>
+      <c r="E669" s="52"/>
+      <c r="F669" s="52"/>
+      <c r="G669" s="52"/>
+      <c r="H669" s="52"/>
+      <c r="I669" s="52"/>
+      <c r="J669" s="52"/>
       <c r="K669" s="24"/>
-      <c r="L669" s="58"/>
-      <c r="M669" s="58"/>
-      <c r="N669" s="58"/>
-      <c r="O669" s="58"/>
-      <c r="P669" s="58"/>
-      <c r="Q669" s="70"/>
+      <c r="L669" s="59"/>
+      <c r="M669" s="59"/>
+      <c r="N669" s="59"/>
+      <c r="O669" s="59"/>
+      <c r="P669" s="59"/>
+      <c r="Q669" s="41"/>
     </row>
     <row r="670" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
-      <c r="C670" s="51"/>
-      <c r="D670" s="51"/>
-      <c r="E670" s="51"/>
-      <c r="F670" s="51"/>
-      <c r="G670" s="51"/>
-      <c r="H670" s="51"/>
-      <c r="I670" s="51"/>
-      <c r="J670" s="51"/>
+      <c r="C670" s="53"/>
+      <c r="D670" s="53"/>
+      <c r="E670" s="53"/>
+      <c r="F670" s="53"/>
+      <c r="G670" s="53"/>
+      <c r="H670" s="53"/>
+      <c r="I670" s="53"/>
+      <c r="J670" s="53"/>
       <c r="K670" s="25"/>
-      <c r="L670" s="58"/>
-      <c r="M670" s="58"/>
-      <c r="N670" s="58"/>
-      <c r="O670" s="58"/>
-      <c r="P670" s="58"/>
-      <c r="Q670" s="70"/>
+      <c r="L670" s="59"/>
+      <c r="M670" s="59"/>
+      <c r="N670" s="59"/>
+      <c r="O670" s="59"/>
+      <c r="P670" s="59"/>
+      <c r="Q670" s="41"/>
     </row>
     <row r="671" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C671" s="55"/>
       <c r="D671" s="55"/>
@@ -15124,13 +15118,13 @@
         <v>16</v>
       </c>
       <c r="N673" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O673" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P673" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q673" s="4"/>
     </row>
@@ -15851,8 +15845,8 @@
       <c r="A713" s="3"/>
       <c r="F713" s="22"/>
       <c r="G713" s="22"/>
-      <c r="H713" s="47"/>
-      <c r="I713" s="48"/>
+      <c r="H713" s="49"/>
+      <c r="I713" s="50"/>
       <c r="J713" s="22"/>
       <c r="K713" s="1"/>
       <c r="L713" s="2"/>
@@ -15861,7 +15855,7 @@
       <c r="O713" s="2"/>
       <c r="P713" s="2"/>
       <c r="Q713" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="714" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15869,7 +15863,7 @@
       <c r="F714" s="16"/>
       <c r="G714" s="16"/>
       <c r="H714" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I714" s="64"/>
       <c r="J714" s="39">
@@ -15877,7 +15871,7 @@
       </c>
       <c r="K714" s="3"/>
       <c r="Q714" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="715" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15889,11 +15883,11 @@
       <c r="F715" s="15"/>
       <c r="G715" s="15"/>
       <c r="H715" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I715" s="66"/>
       <c r="J715" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K715" s="13"/>
       <c r="L715" s="14"/>
@@ -15924,183 +15918,183 @@
     </row>
     <row r="717" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
-      <c r="C717" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D717" s="43"/>
-      <c r="E717" s="43"/>
-      <c r="F717" s="43"/>
-      <c r="G717" s="43"/>
-      <c r="H717" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I717" s="45"/>
-      <c r="J717" s="45"/>
+      <c r="C717" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D717" s="45"/>
+      <c r="E717" s="45"/>
+      <c r="F717" s="45"/>
+      <c r="G717" s="45"/>
+      <c r="H717" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I717" s="47"/>
+      <c r="J717" s="47"/>
       <c r="K717" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L717" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M717" s="52"/>
-      <c r="N717" s="52"/>
-      <c r="O717" s="52"/>
-      <c r="P717" s="52"/>
-      <c r="Q717" s="69"/>
+      <c r="L717" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M717" s="58"/>
+      <c r="N717" s="58"/>
+      <c r="O717" s="58"/>
+      <c r="P717" s="58"/>
+      <c r="Q717" s="40"/>
     </row>
     <row r="718" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
-      <c r="C718" s="43"/>
-      <c r="D718" s="43"/>
-      <c r="E718" s="43"/>
-      <c r="F718" s="43"/>
-      <c r="G718" s="43"/>
-      <c r="H718" s="45"/>
-      <c r="I718" s="45"/>
-      <c r="J718" s="45"/>
+      <c r="C718" s="45"/>
+      <c r="D718" s="45"/>
+      <c r="E718" s="45"/>
+      <c r="F718" s="45"/>
+      <c r="G718" s="45"/>
+      <c r="H718" s="47"/>
+      <c r="I718" s="47"/>
+      <c r="J718" s="47"/>
       <c r="K718" s="57"/>
-      <c r="L718" s="52"/>
-      <c r="M718" s="52"/>
-      <c r="N718" s="52"/>
-      <c r="O718" s="52"/>
-      <c r="P718" s="52"/>
-      <c r="Q718" s="69"/>
+      <c r="L718" s="58"/>
+      <c r="M718" s="58"/>
+      <c r="N718" s="58"/>
+      <c r="O718" s="58"/>
+      <c r="P718" s="58"/>
+      <c r="Q718" s="40"/>
     </row>
     <row r="719" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
-      <c r="C719" s="43"/>
-      <c r="D719" s="43"/>
-      <c r="E719" s="43"/>
-      <c r="F719" s="43"/>
-      <c r="G719" s="43"/>
-      <c r="H719" s="45"/>
-      <c r="I719" s="45"/>
-      <c r="J719" s="45"/>
+      <c r="C719" s="45"/>
+      <c r="D719" s="45"/>
+      <c r="E719" s="45"/>
+      <c r="F719" s="45"/>
+      <c r="G719" s="45"/>
+      <c r="H719" s="47"/>
+      <c r="I719" s="47"/>
+      <c r="J719" s="47"/>
       <c r="K719" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L719" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M719" s="58"/>
-      <c r="N719" s="58"/>
-      <c r="O719" s="58"/>
-      <c r="P719" s="58"/>
-      <c r="Q719" s="70"/>
+      <c r="L719" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M719" s="59"/>
+      <c r="N719" s="59"/>
+      <c r="O719" s="59"/>
+      <c r="P719" s="59"/>
+      <c r="Q719" s="41"/>
     </row>
     <row r="720" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
-      <c r="C720" s="43"/>
-      <c r="D720" s="43"/>
-      <c r="E720" s="43"/>
-      <c r="F720" s="43"/>
-      <c r="G720" s="43"/>
-      <c r="H720" s="45"/>
-      <c r="I720" s="45"/>
-      <c r="J720" s="45"/>
+      <c r="C720" s="45"/>
+      <c r="D720" s="45"/>
+      <c r="E720" s="45"/>
+      <c r="F720" s="45"/>
+      <c r="G720" s="45"/>
+      <c r="H720" s="47"/>
+      <c r="I720" s="47"/>
+      <c r="J720" s="47"/>
       <c r="K720" s="57"/>
-      <c r="L720" s="58"/>
-      <c r="M720" s="58"/>
-      <c r="N720" s="58"/>
-      <c r="O720" s="58"/>
-      <c r="P720" s="58"/>
-      <c r="Q720" s="70"/>
+      <c r="L720" s="59"/>
+      <c r="M720" s="59"/>
+      <c r="N720" s="59"/>
+      <c r="O720" s="59"/>
+      <c r="P720" s="59"/>
+      <c r="Q720" s="41"/>
     </row>
     <row r="721" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="3"/>
-      <c r="C721" s="44"/>
-      <c r="D721" s="44"/>
-      <c r="E721" s="44"/>
-      <c r="F721" s="44"/>
-      <c r="G721" s="44"/>
-      <c r="H721" s="46"/>
-      <c r="I721" s="46"/>
-      <c r="J721" s="46"/>
-      <c r="L721" s="58"/>
-      <c r="M721" s="58"/>
-      <c r="N721" s="58"/>
-      <c r="O721" s="58"/>
-      <c r="P721" s="58"/>
-      <c r="Q721" s="70"/>
+      <c r="C721" s="46"/>
+      <c r="D721" s="46"/>
+      <c r="E721" s="46"/>
+      <c r="F721" s="46"/>
+      <c r="G721" s="46"/>
+      <c r="H721" s="48"/>
+      <c r="I721" s="48"/>
+      <c r="J721" s="48"/>
+      <c r="L721" s="59"/>
+      <c r="M721" s="59"/>
+      <c r="N721" s="59"/>
+      <c r="O721" s="59"/>
+      <c r="P721" s="59"/>
+      <c r="Q721" s="41"/>
     </row>
     <row r="722" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
-      <c r="C722" s="49" t="s">
+      <c r="C722" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D722" s="49"/>
-      <c r="E722" s="49"/>
-      <c r="F722" s="49"/>
-      <c r="G722" s="49"/>
-      <c r="H722" s="49"/>
-      <c r="I722" s="49"/>
-      <c r="J722" s="49"/>
+      <c r="D722" s="51"/>
+      <c r="E722" s="51"/>
+      <c r="F722" s="51"/>
+      <c r="G722" s="51"/>
+      <c r="H722" s="51"/>
+      <c r="I722" s="51"/>
+      <c r="J722" s="51"/>
       <c r="K722" s="21"/>
-      <c r="L722" s="58"/>
-      <c r="M722" s="58"/>
-      <c r="N722" s="58"/>
-      <c r="O722" s="58"/>
-      <c r="P722" s="58"/>
-      <c r="Q722" s="70"/>
+      <c r="L722" s="59"/>
+      <c r="M722" s="59"/>
+      <c r="N722" s="59"/>
+      <c r="O722" s="59"/>
+      <c r="P722" s="59"/>
+      <c r="Q722" s="41"/>
     </row>
     <row r="723" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
-      <c r="C723" s="50"/>
-      <c r="D723" s="50"/>
-      <c r="E723" s="50"/>
-      <c r="F723" s="50"/>
-      <c r="G723" s="50"/>
-      <c r="H723" s="50"/>
-      <c r="I723" s="50"/>
-      <c r="J723" s="50"/>
+      <c r="C723" s="52"/>
+      <c r="D723" s="52"/>
+      <c r="E723" s="52"/>
+      <c r="F723" s="52"/>
+      <c r="G723" s="52"/>
+      <c r="H723" s="52"/>
+      <c r="I723" s="52"/>
+      <c r="J723" s="52"/>
       <c r="K723" s="24"/>
-      <c r="L723" s="58"/>
-      <c r="M723" s="58"/>
-      <c r="N723" s="58"/>
-      <c r="O723" s="58"/>
-      <c r="P723" s="58"/>
-      <c r="Q723" s="70"/>
+      <c r="L723" s="59"/>
+      <c r="M723" s="59"/>
+      <c r="N723" s="59"/>
+      <c r="O723" s="59"/>
+      <c r="P723" s="59"/>
+      <c r="Q723" s="41"/>
     </row>
     <row r="724" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
-      <c r="C724" s="50"/>
-      <c r="D724" s="50"/>
-      <c r="E724" s="50"/>
-      <c r="F724" s="50"/>
-      <c r="G724" s="50"/>
-      <c r="H724" s="50"/>
-      <c r="I724" s="50"/>
-      <c r="J724" s="50"/>
+      <c r="C724" s="52"/>
+      <c r="D724" s="52"/>
+      <c r="E724" s="52"/>
+      <c r="F724" s="52"/>
+      <c r="G724" s="52"/>
+      <c r="H724" s="52"/>
+      <c r="I724" s="52"/>
+      <c r="J724" s="52"/>
       <c r="K724" s="24"/>
-      <c r="L724" s="58"/>
-      <c r="M724" s="58"/>
-      <c r="N724" s="58"/>
-      <c r="O724" s="58"/>
-      <c r="P724" s="58"/>
-      <c r="Q724" s="70"/>
+      <c r="L724" s="59"/>
+      <c r="M724" s="59"/>
+      <c r="N724" s="59"/>
+      <c r="O724" s="59"/>
+      <c r="P724" s="59"/>
+      <c r="Q724" s="41"/>
     </row>
     <row r="725" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
-      <c r="C725" s="51"/>
-      <c r="D725" s="51"/>
-      <c r="E725" s="51"/>
-      <c r="F725" s="51"/>
-      <c r="G725" s="51"/>
-      <c r="H725" s="51"/>
-      <c r="I725" s="51"/>
-      <c r="J725" s="51"/>
+      <c r="C725" s="53"/>
+      <c r="D725" s="53"/>
+      <c r="E725" s="53"/>
+      <c r="F725" s="53"/>
+      <c r="G725" s="53"/>
+      <c r="H725" s="53"/>
+      <c r="I725" s="53"/>
+      <c r="J725" s="53"/>
       <c r="K725" s="25"/>
-      <c r="L725" s="58"/>
-      <c r="M725" s="58"/>
-      <c r="N725" s="58"/>
-      <c r="O725" s="58"/>
-      <c r="P725" s="58"/>
-      <c r="Q725" s="70"/>
+      <c r="L725" s="59"/>
+      <c r="M725" s="59"/>
+      <c r="N725" s="59"/>
+      <c r="O725" s="59"/>
+      <c r="P725" s="59"/>
+      <c r="Q725" s="41"/>
     </row>
     <row r="726" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C726" s="55"/>
       <c r="D726" s="55"/>
@@ -16162,13 +16156,13 @@
         <v>16</v>
       </c>
       <c r="N728" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O728" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P728" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q728" s="4"/>
     </row>
@@ -16889,8 +16883,8 @@
       <c r="A768" s="3"/>
       <c r="F768" s="22"/>
       <c r="G768" s="22"/>
-      <c r="H768" s="47"/>
-      <c r="I768" s="48"/>
+      <c r="H768" s="49"/>
+      <c r="I768" s="50"/>
       <c r="J768" s="22"/>
       <c r="K768" s="1"/>
       <c r="L768" s="2"/>
@@ -16899,7 +16893,7 @@
       <c r="O768" s="2"/>
       <c r="P768" s="2"/>
       <c r="Q768" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="769" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16907,7 +16901,7 @@
       <c r="F769" s="16"/>
       <c r="G769" s="16"/>
       <c r="H769" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I769" s="64"/>
       <c r="J769" s="39">
@@ -16915,7 +16909,7 @@
       </c>
       <c r="K769" s="3"/>
       <c r="Q769" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="770" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16927,11 +16921,11 @@
       <c r="F770" s="15"/>
       <c r="G770" s="15"/>
       <c r="H770" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I770" s="66"/>
       <c r="J770" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K770" s="13"/>
       <c r="L770" s="14"/>
@@ -16962,183 +16956,183 @@
     </row>
     <row r="772" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
-      <c r="C772" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D772" s="43"/>
-      <c r="E772" s="43"/>
-      <c r="F772" s="43"/>
-      <c r="G772" s="43"/>
-      <c r="H772" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I772" s="45"/>
-      <c r="J772" s="45"/>
+      <c r="C772" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D772" s="45"/>
+      <c r="E772" s="45"/>
+      <c r="F772" s="45"/>
+      <c r="G772" s="45"/>
+      <c r="H772" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I772" s="47"/>
+      <c r="J772" s="47"/>
       <c r="K772" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L772" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M772" s="52"/>
-      <c r="N772" s="52"/>
-      <c r="O772" s="52"/>
-      <c r="P772" s="52"/>
-      <c r="Q772" s="69"/>
+      <c r="L772" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M772" s="58"/>
+      <c r="N772" s="58"/>
+      <c r="O772" s="58"/>
+      <c r="P772" s="58"/>
+      <c r="Q772" s="40"/>
     </row>
     <row r="773" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
-      <c r="C773" s="43"/>
-      <c r="D773" s="43"/>
-      <c r="E773" s="43"/>
-      <c r="F773" s="43"/>
-      <c r="G773" s="43"/>
-      <c r="H773" s="45"/>
-      <c r="I773" s="45"/>
-      <c r="J773" s="45"/>
+      <c r="C773" s="45"/>
+      <c r="D773" s="45"/>
+      <c r="E773" s="45"/>
+      <c r="F773" s="45"/>
+      <c r="G773" s="45"/>
+      <c r="H773" s="47"/>
+      <c r="I773" s="47"/>
+      <c r="J773" s="47"/>
       <c r="K773" s="57"/>
-      <c r="L773" s="52"/>
-      <c r="M773" s="52"/>
-      <c r="N773" s="52"/>
-      <c r="O773" s="52"/>
-      <c r="P773" s="52"/>
-      <c r="Q773" s="69"/>
+      <c r="L773" s="58"/>
+      <c r="M773" s="58"/>
+      <c r="N773" s="58"/>
+      <c r="O773" s="58"/>
+      <c r="P773" s="58"/>
+      <c r="Q773" s="40"/>
     </row>
     <row r="774" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
-      <c r="C774" s="43"/>
-      <c r="D774" s="43"/>
-      <c r="E774" s="43"/>
-      <c r="F774" s="43"/>
-      <c r="G774" s="43"/>
-      <c r="H774" s="45"/>
-      <c r="I774" s="45"/>
-      <c r="J774" s="45"/>
+      <c r="C774" s="45"/>
+      <c r="D774" s="45"/>
+      <c r="E774" s="45"/>
+      <c r="F774" s="45"/>
+      <c r="G774" s="45"/>
+      <c r="H774" s="47"/>
+      <c r="I774" s="47"/>
+      <c r="J774" s="47"/>
       <c r="K774" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L774" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M774" s="58"/>
-      <c r="N774" s="58"/>
-      <c r="O774" s="58"/>
-      <c r="P774" s="58"/>
-      <c r="Q774" s="70"/>
+      <c r="L774" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M774" s="59"/>
+      <c r="N774" s="59"/>
+      <c r="O774" s="59"/>
+      <c r="P774" s="59"/>
+      <c r="Q774" s="41"/>
     </row>
     <row r="775" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
-      <c r="C775" s="43"/>
-      <c r="D775" s="43"/>
-      <c r="E775" s="43"/>
-      <c r="F775" s="43"/>
-      <c r="G775" s="43"/>
-      <c r="H775" s="45"/>
-      <c r="I775" s="45"/>
-      <c r="J775" s="45"/>
+      <c r="C775" s="45"/>
+      <c r="D775" s="45"/>
+      <c r="E775" s="45"/>
+      <c r="F775" s="45"/>
+      <c r="G775" s="45"/>
+      <c r="H775" s="47"/>
+      <c r="I775" s="47"/>
+      <c r="J775" s="47"/>
       <c r="K775" s="57"/>
-      <c r="L775" s="58"/>
-      <c r="M775" s="58"/>
-      <c r="N775" s="58"/>
-      <c r="O775" s="58"/>
-      <c r="P775" s="58"/>
-      <c r="Q775" s="70"/>
+      <c r="L775" s="59"/>
+      <c r="M775" s="59"/>
+      <c r="N775" s="59"/>
+      <c r="O775" s="59"/>
+      <c r="P775" s="59"/>
+      <c r="Q775" s="41"/>
     </row>
     <row r="776" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A776" s="3"/>
-      <c r="C776" s="44"/>
-      <c r="D776" s="44"/>
-      <c r="E776" s="44"/>
-      <c r="F776" s="44"/>
-      <c r="G776" s="44"/>
-      <c r="H776" s="46"/>
-      <c r="I776" s="46"/>
-      <c r="J776" s="46"/>
-      <c r="L776" s="58"/>
-      <c r="M776" s="58"/>
-      <c r="N776" s="58"/>
-      <c r="O776" s="58"/>
-      <c r="P776" s="58"/>
-      <c r="Q776" s="70"/>
+      <c r="C776" s="46"/>
+      <c r="D776" s="46"/>
+      <c r="E776" s="46"/>
+      <c r="F776" s="46"/>
+      <c r="G776" s="46"/>
+      <c r="H776" s="48"/>
+      <c r="I776" s="48"/>
+      <c r="J776" s="48"/>
+      <c r="L776" s="59"/>
+      <c r="M776" s="59"/>
+      <c r="N776" s="59"/>
+      <c r="O776" s="59"/>
+      <c r="P776" s="59"/>
+      <c r="Q776" s="41"/>
     </row>
     <row r="777" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
-      <c r="C777" s="49" t="s">
+      <c r="C777" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D777" s="49"/>
-      <c r="E777" s="49"/>
-      <c r="F777" s="49"/>
-      <c r="G777" s="49"/>
-      <c r="H777" s="49"/>
-      <c r="I777" s="49"/>
-      <c r="J777" s="49"/>
+      <c r="D777" s="51"/>
+      <c r="E777" s="51"/>
+      <c r="F777" s="51"/>
+      <c r="G777" s="51"/>
+      <c r="H777" s="51"/>
+      <c r="I777" s="51"/>
+      <c r="J777" s="51"/>
       <c r="K777" s="21"/>
-      <c r="L777" s="58"/>
-      <c r="M777" s="58"/>
-      <c r="N777" s="58"/>
-      <c r="O777" s="58"/>
-      <c r="P777" s="58"/>
-      <c r="Q777" s="70"/>
+      <c r="L777" s="59"/>
+      <c r="M777" s="59"/>
+      <c r="N777" s="59"/>
+      <c r="O777" s="59"/>
+      <c r="P777" s="59"/>
+      <c r="Q777" s="41"/>
     </row>
     <row r="778" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
-      <c r="C778" s="50"/>
-      <c r="D778" s="50"/>
-      <c r="E778" s="50"/>
-      <c r="F778" s="50"/>
-      <c r="G778" s="50"/>
-      <c r="H778" s="50"/>
-      <c r="I778" s="50"/>
-      <c r="J778" s="50"/>
+      <c r="C778" s="52"/>
+      <c r="D778" s="52"/>
+      <c r="E778" s="52"/>
+      <c r="F778" s="52"/>
+      <c r="G778" s="52"/>
+      <c r="H778" s="52"/>
+      <c r="I778" s="52"/>
+      <c r="J778" s="52"/>
       <c r="K778" s="24"/>
-      <c r="L778" s="58"/>
-      <c r="M778" s="58"/>
-      <c r="N778" s="58"/>
-      <c r="O778" s="58"/>
-      <c r="P778" s="58"/>
-      <c r="Q778" s="70"/>
+      <c r="L778" s="59"/>
+      <c r="M778" s="59"/>
+      <c r="N778" s="59"/>
+      <c r="O778" s="59"/>
+      <c r="P778" s="59"/>
+      <c r="Q778" s="41"/>
     </row>
     <row r="779" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
-      <c r="C779" s="50"/>
-      <c r="D779" s="50"/>
-      <c r="E779" s="50"/>
-      <c r="F779" s="50"/>
-      <c r="G779" s="50"/>
-      <c r="H779" s="50"/>
-      <c r="I779" s="50"/>
-      <c r="J779" s="50"/>
+      <c r="C779" s="52"/>
+      <c r="D779" s="52"/>
+      <c r="E779" s="52"/>
+      <c r="F779" s="52"/>
+      <c r="G779" s="52"/>
+      <c r="H779" s="52"/>
+      <c r="I779" s="52"/>
+      <c r="J779" s="52"/>
       <c r="K779" s="24"/>
-      <c r="L779" s="58"/>
-      <c r="M779" s="58"/>
-      <c r="N779" s="58"/>
-      <c r="O779" s="58"/>
-      <c r="P779" s="58"/>
-      <c r="Q779" s="70"/>
+      <c r="L779" s="59"/>
+      <c r="M779" s="59"/>
+      <c r="N779" s="59"/>
+      <c r="O779" s="59"/>
+      <c r="P779" s="59"/>
+      <c r="Q779" s="41"/>
     </row>
     <row r="780" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
-      <c r="C780" s="51"/>
-      <c r="D780" s="51"/>
-      <c r="E780" s="51"/>
-      <c r="F780" s="51"/>
-      <c r="G780" s="51"/>
-      <c r="H780" s="51"/>
-      <c r="I780" s="51"/>
-      <c r="J780" s="51"/>
+      <c r="C780" s="53"/>
+      <c r="D780" s="53"/>
+      <c r="E780" s="53"/>
+      <c r="F780" s="53"/>
+      <c r="G780" s="53"/>
+      <c r="H780" s="53"/>
+      <c r="I780" s="53"/>
+      <c r="J780" s="53"/>
       <c r="K780" s="25"/>
-      <c r="L780" s="58"/>
-      <c r="M780" s="58"/>
-      <c r="N780" s="58"/>
-      <c r="O780" s="58"/>
-      <c r="P780" s="58"/>
-      <c r="Q780" s="70"/>
+      <c r="L780" s="59"/>
+      <c r="M780" s="59"/>
+      <c r="N780" s="59"/>
+      <c r="O780" s="59"/>
+      <c r="P780" s="59"/>
+      <c r="Q780" s="41"/>
     </row>
     <row r="781" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C781" s="55"/>
       <c r="D781" s="55"/>
@@ -17200,13 +17194,13 @@
         <v>16</v>
       </c>
       <c r="N783" s="36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O783" s="36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P783" s="38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q783" s="4"/>
     </row>
@@ -17927,8 +17921,8 @@
       <c r="A823" s="3"/>
       <c r="F823" s="22"/>
       <c r="G823" s="22"/>
-      <c r="H823" s="47"/>
-      <c r="I823" s="48"/>
+      <c r="H823" s="49"/>
+      <c r="I823" s="50"/>
       <c r="J823" s="22"/>
       <c r="K823" s="1"/>
       <c r="L823" s="2"/>
@@ -17937,7 +17931,7 @@
       <c r="O823" s="2"/>
       <c r="P823" s="2"/>
       <c r="Q823" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="824" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17945,7 +17939,7 @@
       <c r="F824" s="16"/>
       <c r="G824" s="16"/>
       <c r="H824" s="63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I824" s="64"/>
       <c r="J824" s="39">
@@ -17953,7 +17947,7 @@
       </c>
       <c r="K824" s="3"/>
       <c r="Q824" s="67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="825" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17965,11 +17959,11 @@
       <c r="F825" s="15"/>
       <c r="G825" s="15"/>
       <c r="H825" s="65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I825" s="66"/>
       <c r="J825" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K825" s="13"/>
       <c r="L825" s="14"/>
@@ -18142,14 +18136,14 @@
     <mergeCell ref="H164:I164"/>
     <mergeCell ref="Q164:Q165"/>
     <mergeCell ref="H165:I165"/>
-    <mergeCell ref="L112:Q113"/>
     <mergeCell ref="K114:K115"/>
-    <mergeCell ref="L114:Q120"/>
     <mergeCell ref="C117:J120"/>
     <mergeCell ref="B121:P122"/>
     <mergeCell ref="C112:G116"/>
     <mergeCell ref="H112:J116"/>
     <mergeCell ref="K112:K113"/>
+    <mergeCell ref="L112:P113"/>
+    <mergeCell ref="L114:P120"/>
     <mergeCell ref="B66:P67"/>
     <mergeCell ref="E68:L68"/>
     <mergeCell ref="Q109:Q110"/>
@@ -18161,21 +18155,21 @@
     <mergeCell ref="C57:G61"/>
     <mergeCell ref="H57:J61"/>
     <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:Q58"/>
     <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:Q65"/>
     <mergeCell ref="C62:J65"/>
     <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="L57:P58"/>
+    <mergeCell ref="L59:P65"/>
     <mergeCell ref="E13:L13"/>
     <mergeCell ref="C2:G6"/>
     <mergeCell ref="H2:J6"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="C7:J10"/>
-    <mergeCell ref="L2:Q3"/>
     <mergeCell ref="B11:P12"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:Q10"/>
+    <mergeCell ref="L2:P3"/>
+    <mergeCell ref="L4:P10"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
